--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.126424625041786</v>
+        <v>0.2503165833426191</v>
       </c>
       <c r="C2">
-        <v>7.549960859310542</v>
+        <v>1.677769079846787</v>
       </c>
       <c r="D2">
-        <v>0.006682879406291252</v>
+        <v>0.001485084312509167</v>
       </c>
       <c r="E2">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="F2">
-        <v>2.339754559972782</v>
+        <v>0.5199454577717297</v>
       </c>
       <c r="G2">
-        <v>3.801143664140087</v>
+        <v>0.8446985920311306</v>
       </c>
       <c r="H2">
-        <v>0.309566361099676</v>
+        <v>0.06879252468881694</v>
       </c>
       <c r="I2">
-        <v>2.294386793649954</v>
+        <v>0.509863731922212</v>
       </c>
       <c r="J2">
-        <v>2.582009717379173</v>
+        <v>0.5737799371953718</v>
       </c>
       <c r="K2">
-        <v>3.419692728928807</v>
+        <v>0.7599317175397348</v>
       </c>
       <c r="L2">
-        <v>12.98354203224105</v>
+        <v>2.885231562720232</v>
       </c>
       <c r="M2">
-        <v>8.16992875366709</v>
+        <v>1.815539723037131</v>
       </c>
       <c r="N2">
-        <v>0.09497073590310677</v>
+        <v>0.02110460797846817</v>
       </c>
       <c r="O2">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="P2">
-        <v>45.7084285516961</v>
+        <v>10.15742856704358</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.15775564110255</v>
+        <v>0.2572790313561223</v>
       </c>
       <c r="C3">
-        <v>7.759959770629114</v>
+        <v>1.724435504584248</v>
       </c>
       <c r="D3">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E3">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F3">
-        <v>1.782670140931644</v>
+        <v>0.3961489202070319</v>
       </c>
       <c r="G3">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="H3">
-        <v>0.2352704344357538</v>
+        <v>0.05228231876350084</v>
       </c>
       <c r="I3">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="J3">
-        <v>2.487082889534349</v>
+        <v>0.5526850865631887</v>
       </c>
       <c r="K3">
-        <v>3.293968731541718</v>
+        <v>0.7319930514537151</v>
       </c>
       <c r="L3">
-        <v>10.89976368138754</v>
+        <v>2.422169706975011</v>
       </c>
       <c r="M3">
-        <v>6.858705620362494</v>
+        <v>1.524156804524999</v>
       </c>
       <c r="N3">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O3">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P3">
-        <v>40.23097870243255</v>
+        <v>8.940217489429459</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.183118844580313</v>
+        <v>0.262915298795625</v>
       </c>
       <c r="C4">
-        <v>7.929958889315579</v>
+        <v>1.762213086514573</v>
       </c>
       <c r="D4">
-        <v>0.009297919173970437</v>
+        <v>0.00206620426088232</v>
       </c>
       <c r="E4">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="F4">
-        <v>1.281294163794619</v>
+        <v>0.2847320363988043</v>
       </c>
       <c r="G4">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="H4">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I4">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J4">
-        <v>2.354185330551598</v>
+        <v>0.5231522956781329</v>
       </c>
       <c r="K4">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332876</v>
       </c>
       <c r="L4">
-        <v>5.44988184069377</v>
+        <v>1.211084853487505</v>
       </c>
       <c r="M4">
-        <v>3.429352810181247</v>
+        <v>0.7620784022624995</v>
       </c>
       <c r="N4">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O4">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P4">
-        <v>30.73517930572995</v>
+        <v>6.830039845717769</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.284571658491361</v>
+        <v>0.2854603685536358</v>
       </c>
       <c r="C5">
-        <v>8.609955364061427</v>
+        <v>1.913323414235872</v>
       </c>
       <c r="D5">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E5">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F5">
-        <v>2.005503908548099</v>
+        <v>0.4456675352329111</v>
       </c>
       <c r="G5">
-        <v>3.258123140691503</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H5">
-        <v>0.3838622877635984</v>
+        <v>0.08530273061413299</v>
       </c>
       <c r="I5">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="J5">
-        <v>1.746653632344734</v>
+        <v>0.3881452516321632</v>
       </c>
       <c r="K5">
-        <v>2.313321551922428</v>
+        <v>0.5140714559827617</v>
       </c>
       <c r="L5">
-        <v>3.526394132213617</v>
+        <v>0.7836431404919151</v>
       </c>
       <c r="M5">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="N5">
-        <v>0.09497073590310677</v>
+        <v>0.02110460797846817</v>
       </c>
       <c r="O5">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="P5">
-        <v>29.49200468387676</v>
+        <v>6.553778818639282</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.541187599560482</v>
+        <v>0.3424861332356627</v>
       </c>
       <c r="C6">
-        <v>10.32994644724211</v>
+        <v>2.295543654942692</v>
       </c>
       <c r="D6">
-        <v>0.009588479148157011</v>
+        <v>0.002130773144034891</v>
       </c>
       <c r="E6">
-        <v>0.9120351502934443</v>
+        <v>0.2026744778429876</v>
       </c>
       <c r="F6">
-        <v>1.838378582835758</v>
+        <v>0.4085285739635018</v>
       </c>
       <c r="G6">
-        <v>2.986612878967212</v>
+        <v>0.6636917508816028</v>
       </c>
       <c r="H6">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I6">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J6">
-        <v>1.385931686534408</v>
+        <v>0.3079848192298686</v>
       </c>
       <c r="K6">
-        <v>1.835570361851492</v>
+        <v>0.4079045248558871</v>
       </c>
       <c r="L6">
-        <v>2.083778350853501</v>
+        <v>0.4630618557452224</v>
       </c>
       <c r="M6">
-        <v>1.311223133304595</v>
+        <v>0.2913829185121322</v>
       </c>
       <c r="N6">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O6">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P6">
-        <v>26.64815012540411</v>
+        <v>5.921811138978694</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.336790018592635</v>
+        <v>0.2970644485761411</v>
       </c>
       <c r="C7">
-        <v>8.959953549592385</v>
+        <v>1.991100788798307</v>
       </c>
       <c r="D7">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E7">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F7">
-        <v>1.782670140931644</v>
+        <v>0.3961489202070319</v>
       </c>
       <c r="G7">
-        <v>2.896109458392448</v>
+        <v>0.6435798796427663</v>
       </c>
       <c r="H7">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I7">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J7">
-        <v>0.7973853538965091</v>
+        <v>0.1771967453103353</v>
       </c>
       <c r="K7">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="L7">
-        <v>1.602906423733463</v>
+        <v>0.3562014274963251</v>
       </c>
       <c r="M7">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="N7">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O7">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P7">
-        <v>23.40397871933516</v>
+        <v>5.200884159852257</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.066746499211757</v>
+        <v>0.2370547776026127</v>
       </c>
       <c r="C8">
-        <v>7.149962932989453</v>
+        <v>1.588880651775435</v>
       </c>
       <c r="D8">
-        <v>0.00755455932885098</v>
+        <v>0.001678790961966885</v>
       </c>
       <c r="E8">
-        <v>0.718573148716047</v>
+        <v>0.1596829219368993</v>
       </c>
       <c r="F8">
-        <v>0.9470435123699354</v>
+        <v>0.2104541138599857</v>
       </c>
       <c r="G8">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="H8">
-        <v>0.3590969788756241</v>
+        <v>0.0797993286390276</v>
       </c>
       <c r="I8">
-        <v>2.661488680633947</v>
+        <v>0.5914419290297659</v>
       </c>
       <c r="J8">
-        <v>0.9112975473102961</v>
+        <v>0.2025105660689547</v>
       </c>
       <c r="K8">
-        <v>1.206950374916049</v>
+        <v>0.2682111944257887</v>
       </c>
       <c r="L8">
-        <v>1.923487708480155</v>
+        <v>0.42744171299559</v>
       </c>
       <c r="M8">
-        <v>1.210359815358087</v>
+        <v>0.2689688478573526</v>
       </c>
       <c r="N8">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O8">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P8">
-        <v>19.94595726522775</v>
+        <v>4.432434947828389</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.9369465755314452</v>
+        <v>0.2082103501180989</v>
       </c>
       <c r="C9">
-        <v>6.279967443241088</v>
+        <v>1.395548320720241</v>
       </c>
       <c r="D9">
-        <v>0.01162239896746305</v>
+        <v>0.002582755326102899</v>
       </c>
       <c r="E9">
-        <v>1.105497151870842</v>
+        <v>0.2456660337490759</v>
       </c>
       <c r="F9">
-        <v>1.114168838082277</v>
+        <v>0.247593075129395</v>
       </c>
       <c r="G9">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="H9">
-        <v>0.5448367955354299</v>
+        <v>0.1210748434523178</v>
       </c>
       <c r="I9">
-        <v>4.038120756823918</v>
+        <v>0.8973601681830932</v>
       </c>
       <c r="J9">
-        <v>0.5505756014999706</v>
+        <v>0.1223501336666601</v>
       </c>
       <c r="K9">
-        <v>0.7291991848451131</v>
+        <v>0.162044263298914</v>
       </c>
       <c r="L9">
-        <v>2.724940920346885</v>
+        <v>0.6055424267437527</v>
       </c>
       <c r="M9">
-        <v>1.714676405090624</v>
+        <v>0.3810392011312497</v>
       </c>
       <c r="N9">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O9">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P9">
-        <v>21.68303916196362</v>
+        <v>4.818453147103027</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.8250500896001421</v>
+        <v>0.1833444643555871</v>
       </c>
       <c r="C10">
-        <v>5.529971331389046</v>
+        <v>1.228882518086455</v>
       </c>
       <c r="D10">
-        <v>0.004939519561171795</v>
+        <v>0.001097671013593732</v>
       </c>
       <c r="E10">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="F10">
-        <v>0.8356266285617079</v>
+        <v>0.1856948063470463</v>
       </c>
       <c r="G10">
-        <v>1.35755130862146</v>
+        <v>0.3016780685825466</v>
       </c>
       <c r="H10">
-        <v>0.3343316699876502</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I10">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J10">
-        <v>0.5315902359310061</v>
+        <v>0.1181311635402236</v>
       </c>
       <c r="K10">
-        <v>0.7040543853676954</v>
+        <v>0.1564565300817101</v>
       </c>
       <c r="L10">
-        <v>1.442615781360116</v>
+        <v>0.3205812847466927</v>
       </c>
       <c r="M10">
-        <v>0.9077698615185654</v>
+        <v>0.2017266358930146</v>
       </c>
       <c r="N10">
-        <v>0.07122805192733005</v>
+        <v>0.01582845598385113</v>
       </c>
       <c r="O10">
-        <v>0.2960279839725128</v>
+        <v>0.06578399643833618</v>
       </c>
       <c r="P10">
-        <v>15.78853087448546</v>
+        <v>3.508562416552325</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4654893814742213</v>
+        <v>0.1034420847720492</v>
       </c>
       <c r="C11">
-        <v>3.119983825304488</v>
+        <v>0.6933297389565537</v>
       </c>
       <c r="D11">
-        <v>0.002324479793492609</v>
+        <v>0.0005165510652205799</v>
       </c>
       <c r="E11">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="F11">
-        <v>0.2785422095205693</v>
+        <v>0.06189826878234875</v>
       </c>
       <c r="G11">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="H11">
-        <v>0.2228877799917668</v>
+        <v>0.04953061777594818</v>
       </c>
       <c r="I11">
-        <v>1.651958491427967</v>
+        <v>0.3671018869839927</v>
       </c>
       <c r="J11">
-        <v>0.4746341392241125</v>
+        <v>0.1054742531609139</v>
       </c>
       <c r="K11">
-        <v>0.6286199869354423</v>
+        <v>0.1396933304300983</v>
       </c>
       <c r="L11">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M11">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="N11">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O11">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P11">
-        <v>9.129873325102517</v>
+        <v>2.028860738911672</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.3192779731906517</v>
+        <v>0.07095066070903379</v>
       </c>
       <c r="C12">
-        <v>2.139988905817823</v>
+        <v>0.4755530901817383</v>
       </c>
       <c r="D12">
-        <v>0.002324479793492609</v>
+        <v>0.0005165510652205799</v>
       </c>
       <c r="E12">
-        <v>0.2210994303741683</v>
+        <v>0.04913320674981518</v>
       </c>
       <c r="F12">
-        <v>0.2228337676164555</v>
+        <v>0.04951861502587899</v>
       </c>
       <c r="G12">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H12">
-        <v>0.08667858110790928</v>
+        <v>0.01926190691286873</v>
       </c>
       <c r="I12">
-        <v>0.6424283022219871</v>
+        <v>0.1427618449382193</v>
       </c>
       <c r="J12">
-        <v>0.227824386827574</v>
+        <v>0.05062764151723868</v>
       </c>
       <c r="K12">
-        <v>0.3017375937290123</v>
+        <v>0.06705279860644717</v>
       </c>
       <c r="L12">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M12">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="N12">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O12">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P12">
-        <v>5.693241622890825</v>
+        <v>1.26516480508685</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1969378152390935</v>
+        <v>0.0437639589420208</v>
       </c>
       <c r="C13">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="D13">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E13">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F13">
-        <v>0.05570844190411388</v>
+        <v>0.01237965375646975</v>
       </c>
       <c r="G13">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="J13">
-        <v>0.2088390212586095</v>
+        <v>0.0464086713908021</v>
       </c>
       <c r="K13">
-        <v>0.2765927942515946</v>
+        <v>0.06146506538924325</v>
       </c>
       <c r="L13">
-        <v>0.4808719271200388</v>
+        <v>0.1068604282488975</v>
       </c>
       <c r="M13">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="N13">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O13">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P13">
-        <v>3.188741791760671</v>
+        <v>0.7086092870579269</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1596389865953259</v>
+        <v>0.03547533035451689</v>
       </c>
       <c r="C14">
-        <v>1.069994452908912</v>
+        <v>0.2377765450908692</v>
       </c>
       <c r="D14">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E14">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F14">
-        <v>0.2785422095205693</v>
+        <v>0.06189826878234875</v>
       </c>
       <c r="G14">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="J14">
-        <v>0.265795117965503</v>
+        <v>0.05906558177011179</v>
       </c>
       <c r="K14">
-        <v>0.3520271926838477</v>
+        <v>0.07822826504085505</v>
       </c>
       <c r="L14">
-        <v>0.4808719271200388</v>
+        <v>0.1068604282488975</v>
       </c>
       <c r="M14">
-        <v>0.3025899538395219</v>
+        <v>0.06724221196433816</v>
       </c>
       <c r="N14">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O14">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P14">
-        <v>3.735747521079438</v>
+        <v>0.8301661157954305</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,37 +1118,37 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.1193562516600568</v>
+        <v>0.02652361148001263</v>
       </c>
       <c r="C15">
-        <v>0.7999958526421765</v>
+        <v>0.1777768561427059</v>
       </c>
       <c r="D15">
-        <v>0.001452799870932881</v>
+        <v>0.0003228444157628624</v>
       </c>
       <c r="E15">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="F15">
-        <v>0.1114168838082278</v>
+        <v>0.02475930751293949</v>
       </c>
       <c r="G15">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="J15">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K15">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L15">
-        <v>0.9617438542400777</v>
+        <v>0.213720856497795</v>
       </c>
       <c r="M15">
-        <v>0.6051799076790437</v>
+        <v>0.1344844239286763</v>
       </c>
       <c r="P15">
-        <v>3.315511020451338</v>
+        <v>0.7367802267669641</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.1029447670567989</v>
+        <v>0.02287661490151086</v>
       </c>
       <c r="C16">
-        <v>0.6899964229038775</v>
+        <v>0.1533325384230839</v>
       </c>
       <c r="D16">
-        <v>0.001452799870932881</v>
+        <v>0.0003228444157628624</v>
       </c>
       <c r="E16">
-        <v>0.1381871439838552</v>
+        <v>0.03070825421863449</v>
       </c>
       <c r="F16">
-        <v>0.1114168838082278</v>
+        <v>0.02475930751293949</v>
       </c>
       <c r="G16">
-        <v>0.181006841149528</v>
+        <v>0.04022374247767289</v>
       </c>
       <c r="H16">
-        <v>0.06191327221993522</v>
+        <v>0.01375850493776338</v>
       </c>
       <c r="I16">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="J16">
-        <v>0.151882924551716</v>
+        <v>0.03375176101149245</v>
       </c>
       <c r="K16">
-        <v>0.2011583958193416</v>
+        <v>0.04470186573763146</v>
       </c>
       <c r="L16">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M16">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P16">
-        <v>3.404606611693472</v>
+        <v>0.7565792470429937</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1969378152390935</v>
+        <v>0.0437639589420208</v>
       </c>
       <c r="C17">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="D17">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E17">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F17">
-        <v>0.445667535232911</v>
+        <v>0.09903723005175798</v>
       </c>
       <c r="G17">
-        <v>0.724027364598112</v>
+        <v>0.1608949699106916</v>
       </c>
       <c r="H17">
-        <v>0.01238265444398704</v>
+        <v>0.002751700987552676</v>
       </c>
       <c r="I17">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="J17">
-        <v>0.3037658491034321</v>
+        <v>0.0675035220229849</v>
       </c>
       <c r="K17">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="L17">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M17">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P17">
-        <v>4.970204373086823</v>
+        <v>1.10448986068596</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,49 +1244,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.6564593841303117</v>
+        <v>0.1458798631400693</v>
       </c>
       <c r="C18">
-        <v>4.39997718953197</v>
+        <v>0.9777727087848828</v>
       </c>
       <c r="D18">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E18">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F18">
-        <v>1.281294163794619</v>
+        <v>0.2847320363988043</v>
       </c>
       <c r="G18">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="H18">
-        <v>0.09906123555189636</v>
+        <v>0.02201360790042141</v>
       </c>
       <c r="I18">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="J18">
-        <v>0.9302829128792606</v>
+        <v>0.2067295361953913</v>
       </c>
       <c r="K18">
-        <v>1.232095174393467</v>
+        <v>0.2737989276429926</v>
       </c>
       <c r="L18">
-        <v>3.045522205093577</v>
+        <v>0.6767827122430176</v>
       </c>
       <c r="M18">
-        <v>1.916403040983638</v>
+        <v>0.4258673424408085</v>
       </c>
       <c r="N18">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O18">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P18">
-        <v>16.68943899180156</v>
+        <v>3.708764220400347</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1294,49 +1294,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>1.041383295733995</v>
+        <v>0.23141851016311</v>
       </c>
       <c r="C19">
-        <v>6.979963814302995</v>
+        <v>1.55110306984511</v>
       </c>
       <c r="D19">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E19">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F19">
-        <v>1.44841948950696</v>
+        <v>0.3218709976682134</v>
       </c>
       <c r="G19">
-        <v>2.353088934943864</v>
+        <v>0.5229086522097475</v>
       </c>
       <c r="H19">
-        <v>0.5324541410914427</v>
+        <v>0.1183231424647651</v>
       </c>
       <c r="I19">
-        <v>3.946345285077921</v>
+        <v>0.8769656189062047</v>
       </c>
       <c r="J19">
-        <v>1.575785342224054</v>
+        <v>0.3501745204942341</v>
       </c>
       <c r="K19">
-        <v>2.087018356625668</v>
+        <v>0.4637818570279263</v>
       </c>
       <c r="L19">
-        <v>4.648428628827042</v>
+        <v>1.032984139739342</v>
       </c>
       <c r="M19">
-        <v>2.925036220448711</v>
+        <v>0.6500080489886025</v>
       </c>
       <c r="N19">
-        <v>0.03561402596366502</v>
+        <v>0.007914227991925564</v>
       </c>
       <c r="O19">
-        <v>0.1480139919862564</v>
+        <v>0.03289199821916809</v>
       </c>
       <c r="P19">
-        <v>27.91704744812928</v>
+        <v>6.203788321806505</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.265176267596601</v>
+        <v>0.2811502816881336</v>
       </c>
       <c r="C20">
-        <v>8.479956038007074</v>
+        <v>1.884434675112684</v>
       </c>
       <c r="D20">
-        <v>0.004939519561171795</v>
+        <v>0.001097671013593732</v>
       </c>
       <c r="E20">
-        <v>0.4698362895451076</v>
+        <v>0.1044080643433573</v>
       </c>
       <c r="F20">
-        <v>1.169877279986391</v>
+        <v>0.2599727288858649</v>
       </c>
       <c r="G20">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="H20">
-        <v>0.4705408688715076</v>
+        <v>0.1045646375270017</v>
       </c>
       <c r="I20">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="J20">
-        <v>1.234048761982693</v>
+        <v>0.2742330582183761</v>
       </c>
       <c r="K20">
-        <v>1.63441196603215</v>
+        <v>0.3632026591182556</v>
       </c>
       <c r="L20">
-        <v>3.526394132213617</v>
+        <v>0.7836431404919151</v>
       </c>
       <c r="M20">
-        <v>2.21899299482316</v>
+        <v>0.4931095544051468</v>
       </c>
       <c r="P20">
-        <v>25.86221387703744</v>
+        <v>5.747158639341656</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.363645175216148</v>
+        <v>0.3030322611591441</v>
       </c>
       <c r="C21">
-        <v>9.139952616436865</v>
+        <v>2.031100581430415</v>
       </c>
       <c r="D21">
-        <v>0.006682879406291252</v>
+        <v>0.001485084312509167</v>
       </c>
       <c r="E21">
-        <v>0.6356608623257338</v>
+        <v>0.1412579694057187</v>
       </c>
       <c r="F21">
-        <v>1.894087024739871</v>
+        <v>0.4209082277199715</v>
       </c>
       <c r="G21">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="H21">
-        <v>0.3838622877635984</v>
+        <v>0.08530273061413299</v>
       </c>
       <c r="I21">
-        <v>2.845039624125943</v>
+        <v>0.6322310275835428</v>
       </c>
       <c r="J21">
-        <v>1.480858514379231</v>
+        <v>0.3290796698620514</v>
       </c>
       <c r="K21">
-        <v>1.96129435923858</v>
+        <v>0.4358431909419067</v>
       </c>
       <c r="L21">
-        <v>4.327847344080348</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M21">
-        <v>2.723309584555696</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="N21">
-        <v>0.1068420778909951</v>
+        <v>0.0237426839757767</v>
       </c>
       <c r="O21">
-        <v>0.4440419759587692</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P21">
-        <v>30.39024062566005</v>
+        <v>6.753386805702233</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.201022282329321</v>
+        <v>0.266893840517627</v>
       </c>
       <c r="C22">
-        <v>8.049958267211906</v>
+        <v>1.788879614935979</v>
       </c>
       <c r="D22">
-        <v>0.009297919173970437</v>
+        <v>0.00206620426088232</v>
       </c>
       <c r="E22">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="F22">
-        <v>2.451171443781009</v>
+        <v>0.5447047652846688</v>
       </c>
       <c r="G22">
-        <v>3.982150505289615</v>
+        <v>0.8849223345088036</v>
       </c>
       <c r="H22">
-        <v>0.3219490155436631</v>
+        <v>0.07154422567636959</v>
       </c>
       <c r="I22">
-        <v>2.386162265395952</v>
+        <v>0.5302582811991005</v>
       </c>
       <c r="J22">
-        <v>2.430126792827457</v>
+        <v>0.5400281761838792</v>
       </c>
       <c r="K22">
-        <v>3.218534333109465</v>
+        <v>0.7152298518021033</v>
       </c>
       <c r="L22">
-        <v>9.777729184774127</v>
+        <v>2.172828707727583</v>
       </c>
       <c r="M22">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="N22">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O22">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P22">
-        <v>41.10999948293667</v>
+        <v>9.135555440652592</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.002592513944477</v>
+        <v>0.2227983364321059</v>
       </c>
       <c r="C23">
-        <v>6.719965162194288</v>
+        <v>1.49332559159873</v>
       </c>
       <c r="D23">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E23">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F23">
-        <v>1.169877279986391</v>
+        <v>0.2599727288858649</v>
       </c>
       <c r="G23">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="H23">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I23">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J23">
-        <v>2.563024351810208</v>
+        <v>0.569560967068935</v>
       </c>
       <c r="K23">
-        <v>3.394547929451389</v>
+        <v>0.7543439843225307</v>
       </c>
       <c r="L23">
-        <v>12.50267010512101</v>
+        <v>2.778371134471336</v>
       </c>
       <c r="M23">
-        <v>7.867338799827567</v>
+        <v>1.748297511072793</v>
       </c>
       <c r="N23">
-        <v>0.09497073590310677</v>
+        <v>0.02110460797846817</v>
       </c>
       <c r="O23">
-        <v>0.394703978630017</v>
+        <v>0.08771199525111491</v>
       </c>
       <c r="P23">
-        <v>40.81581126566593</v>
+        <v>9.070180281259093</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.9324707160941931</v>
+        <v>0.2072157146875985</v>
       </c>
       <c r="C24">
-        <v>6.249967598767006</v>
+        <v>1.38888168861489</v>
       </c>
       <c r="D24">
-        <v>0.008426239251410707</v>
+        <v>0.001872497611424602</v>
       </c>
       <c r="E24">
-        <v>0.8014854351063602</v>
+        <v>0.17810787446808</v>
       </c>
       <c r="F24">
-        <v>1.337002605698733</v>
+        <v>0.2971116901552739</v>
       </c>
       <c r="G24">
-        <v>2.172082093794335</v>
+        <v>0.4826849097320746</v>
       </c>
       <c r="H24">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I24">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J24">
-        <v>2.449112158396421</v>
+        <v>0.5442471463103158</v>
       </c>
       <c r="K24">
-        <v>3.243679132586882</v>
+        <v>0.7208175850193073</v>
       </c>
       <c r="L24">
-        <v>14.9070297407212</v>
+        <v>3.312673275715822</v>
       </c>
       <c r="M24">
-        <v>9.380288569025176</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="N24">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O24">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P24">
-        <v>44.0790697622046</v>
+        <v>9.795348836045465</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.001100560798726</v>
+        <v>0.2224667912886057</v>
       </c>
       <c r="C25">
-        <v>6.709965214036255</v>
+        <v>1.491103380896946</v>
       </c>
       <c r="D25">
-        <v>0.01133183899327647</v>
+        <v>0.002518186442950327</v>
       </c>
       <c r="E25">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="F25">
-        <v>1.615544815219302</v>
+        <v>0.3590099589376228</v>
       </c>
       <c r="G25">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="H25">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I25">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J25">
-        <v>2.012448750310237</v>
+        <v>0.447210833402275</v>
       </c>
       <c r="K25">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="L25">
-        <v>15.38790166784124</v>
+        <v>3.41953370396472</v>
       </c>
       <c r="M25">
-        <v>9.6828785228647</v>
+        <v>2.151750782858821</v>
       </c>
       <c r="N25">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O25">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P25">
-        <v>45.24582527609854</v>
+        <v>10.05462783913301</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.114488999875779</v>
+        <v>0.2476642221946177</v>
       </c>
       <c r="C26">
-        <v>7.469961274046324</v>
+        <v>1.659991394232517</v>
       </c>
       <c r="D26">
-        <v>0.01365631878676908</v>
+        <v>0.003034737508170906</v>
       </c>
       <c r="E26">
-        <v>1.298959153448239</v>
+        <v>0.2886575896551641</v>
       </c>
       <c r="F26">
-        <v>2.116920792356327</v>
+        <v>0.4704268427458504</v>
       </c>
       <c r="G26">
-        <v>3.439129981841032</v>
+        <v>0.764251107075785</v>
       </c>
       <c r="H26">
-        <v>0.2600357433237279</v>
+        <v>0.05778572073860621</v>
       </c>
       <c r="I26">
-        <v>1.927284906665961</v>
+        <v>0.428285534814658</v>
       </c>
       <c r="J26">
-        <v>2.354185330551598</v>
+        <v>0.5231522956781329</v>
       </c>
       <c r="K26">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332876</v>
       </c>
       <c r="L26">
-        <v>14.26586717122781</v>
+        <v>3.170192704717293</v>
       </c>
       <c r="M26">
-        <v>8.976835297239148</v>
+        <v>1.994852288275366</v>
       </c>
       <c r="N26">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O26">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P26">
-        <v>46.60011746182908</v>
+        <v>10.35558165818424</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.101061421564022</v>
+        <v>0.2446803159031164</v>
       </c>
       <c r="C27">
-        <v>7.379961740624082</v>
+        <v>1.639991497916462</v>
       </c>
       <c r="D27">
-        <v>0.01249407889002277</v>
+        <v>0.002776461975560616</v>
       </c>
       <c r="E27">
-        <v>1.188409438261155</v>
+        <v>0.2640909862802566</v>
       </c>
       <c r="F27">
-        <v>1.949795466643985</v>
+        <v>0.4332878814764411</v>
       </c>
       <c r="G27">
-        <v>3.167619720116739</v>
+        <v>0.7039154933592756</v>
       </c>
       <c r="H27">
-        <v>0.2352704344357538</v>
+        <v>0.05228231876350084</v>
       </c>
       <c r="I27">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="J27">
-        <v>2.373170696120563</v>
+        <v>0.5273712658045695</v>
       </c>
       <c r="K27">
-        <v>3.143099934677211</v>
+        <v>0.6984666521504916</v>
       </c>
       <c r="L27">
-        <v>9.777729184774127</v>
+        <v>2.172828707727583</v>
       </c>
       <c r="M27">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="N27">
-        <v>0.2018128137941019</v>
+        <v>0.04484729195424486</v>
       </c>
       <c r="O27">
-        <v>0.8387459545887864</v>
+        <v>0.1863879899086192</v>
       </c>
       <c r="P27">
-        <v>39.26556724240146</v>
+        <v>8.725681609422546</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.148803922228045</v>
+        <v>0.2552897604951214</v>
       </c>
       <c r="C28">
-        <v>7.69996008168095</v>
+        <v>1.711102240373545</v>
       </c>
       <c r="D28">
-        <v>0.0122035189158362</v>
+        <v>0.002711893092408044</v>
       </c>
       <c r="E28">
-        <v>1.160772009464384</v>
+        <v>0.2579493354365296</v>
       </c>
       <c r="F28">
-        <v>2.116920792356327</v>
+        <v>0.4704268427458504</v>
       </c>
       <c r="G28">
-        <v>3.439129981841032</v>
+        <v>0.764251107075785</v>
       </c>
       <c r="H28">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I28">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J28">
-        <v>2.297229233844705</v>
+        <v>0.5104953852988234</v>
       </c>
       <c r="K28">
-        <v>3.042520736767541</v>
+        <v>0.6761157192816757</v>
       </c>
       <c r="L28">
-        <v>12.02179817800097</v>
+        <v>2.671510706222437</v>
       </c>
       <c r="M28">
-        <v>7.564748845988046</v>
+        <v>1.681055299108455</v>
       </c>
       <c r="N28">
-        <v>0.08309939391521838</v>
+        <v>0.01846653198115965</v>
       </c>
       <c r="O28">
-        <v>0.3453659813012649</v>
+        <v>0.07674799584472555</v>
       </c>
       <c r="P28">
-        <v>43.43234770486396</v>
+        <v>9.651632823303101</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.07420626494051</v>
+        <v>0.2387125033201136</v>
       </c>
       <c r="C29">
-        <v>7.199962673779587</v>
+        <v>1.599991705284353</v>
       </c>
       <c r="D29">
-        <v>0.01046015907071674</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E29">
-        <v>0.9949474366837573</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F29">
-        <v>1.894087024739871</v>
+        <v>0.4209082277199715</v>
       </c>
       <c r="G29">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="H29">
-        <v>0.3343316699876502</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I29">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J29">
-        <v>1.575785342224054</v>
+        <v>0.3501745204942341</v>
       </c>
       <c r="K29">
-        <v>2.087018356625668</v>
+        <v>0.4637818570279263</v>
       </c>
       <c r="L29">
-        <v>9.777729184774127</v>
+        <v>2.172828707727583</v>
       </c>
       <c r="M29">
-        <v>6.152662394736946</v>
+        <v>1.367258309941543</v>
       </c>
       <c r="N29">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O29">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P29">
-        <v>36.96229124083001</v>
+        <v>8.213842497962226</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.221909626369831</v>
+        <v>0.2715354725266291</v>
       </c>
       <c r="C30">
-        <v>8.189957541424285</v>
+        <v>1.819990564760952</v>
       </c>
       <c r="D30">
-        <v>0.004648959586985218</v>
+        <v>0.00103310213044116</v>
       </c>
       <c r="E30">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="F30">
-        <v>2.172629234260441</v>
+        <v>0.4828064965023202</v>
       </c>
       <c r="G30">
-        <v>3.529633402415795</v>
+        <v>0.7843629783146213</v>
       </c>
       <c r="H30">
-        <v>0.2352704344357538</v>
+        <v>0.05228231876350084</v>
       </c>
       <c r="I30">
-        <v>1.743733963173965</v>
+        <v>0.387496436260881</v>
       </c>
       <c r="J30">
-        <v>1.51882924551716</v>
+        <v>0.3375176101149244</v>
       </c>
       <c r="K30">
-        <v>2.011583958193416</v>
+        <v>0.4470186573763146</v>
       </c>
       <c r="L30">
-        <v>9.296857257654084</v>
+        <v>2.065968279478685</v>
       </c>
       <c r="M30">
-        <v>5.850072440897422</v>
+        <v>1.300016097977205</v>
       </c>
       <c r="N30">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O30">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P30">
-        <v>36.33974360331076</v>
+        <v>8.0754985785135</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,43 +1888,43 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.190578610309066</v>
+        <v>0.2645730245131257</v>
       </c>
       <c r="C31">
-        <v>7.979958630105711</v>
+        <v>1.773324140023493</v>
       </c>
       <c r="D31">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E31">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F31">
-        <v>0.9470435123699354</v>
+        <v>0.2104541138599857</v>
       </c>
       <c r="G31">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="H31">
-        <v>0.4457755599835335</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I31">
-        <v>3.303916982855934</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J31">
-        <v>0.7973853538965091</v>
+        <v>0.1771967453103353</v>
       </c>
       <c r="K31">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="L31">
-        <v>7.213078906800581</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M31">
-        <v>4.538849307592827</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="P31">
-        <v>29.06708256927854</v>
+        <v>6.459351682061901</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,43 +1932,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.059286733483003</v>
+        <v>0.2353970518851118</v>
       </c>
       <c r="C32">
-        <v>7.099963192199325</v>
+        <v>1.577769598266515</v>
       </c>
       <c r="D32">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E32">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F32">
-        <v>1.225585721890505</v>
+        <v>0.2723523826423344</v>
       </c>
       <c r="G32">
-        <v>1.991075252644808</v>
+        <v>0.4424611672544018</v>
       </c>
       <c r="H32">
-        <v>0.5200714866474558</v>
+        <v>0.1155714414772124</v>
       </c>
       <c r="I32">
-        <v>3.854569813331922</v>
+        <v>0.856571069629316</v>
       </c>
       <c r="J32">
-        <v>0.8353560850344378</v>
+        <v>0.1856346855632084</v>
       </c>
       <c r="K32">
-        <v>1.106371177006378</v>
+        <v>0.245860261556973</v>
       </c>
       <c r="L32">
-        <v>5.610172483067117</v>
+        <v>1.246704996237137</v>
       </c>
       <c r="M32">
-        <v>3.530216128127754</v>
+        <v>0.7844924729172789</v>
       </c>
       <c r="P32">
-        <v>27.08401997237133</v>
+        <v>6.018671104971404</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1976,43 +1976,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.8444454804949015</v>
+        <v>0.1876545512210893</v>
       </c>
       <c r="C33">
-        <v>5.659970657443401</v>
+        <v>1.257771257209644</v>
       </c>
       <c r="D33">
-        <v>0.004648959586985218</v>
+        <v>0.00103310213044116</v>
       </c>
       <c r="E33">
-        <v>0.4421988607483366</v>
+        <v>0.09826641349963036</v>
       </c>
       <c r="F33">
-        <v>1.281294163794619</v>
+        <v>0.2847320363988043</v>
       </c>
       <c r="G33">
-        <v>2.081578673219571</v>
+        <v>0.4625730384932383</v>
       </c>
       <c r="H33">
-        <v>0.4333929055395464</v>
+        <v>0.09630953456434366</v>
       </c>
       <c r="I33">
-        <v>3.212141511109935</v>
+        <v>0.7138092246910966</v>
       </c>
       <c r="J33">
-        <v>0.4746341392241125</v>
+        <v>0.1054742531609139</v>
       </c>
       <c r="K33">
-        <v>0.6286199869354423</v>
+        <v>0.1396933304300983</v>
       </c>
       <c r="L33">
-        <v>2.404359635600194</v>
+        <v>0.5343021412444874</v>
       </c>
       <c r="M33">
-        <v>1.512949769197609</v>
+        <v>0.3362110598216909</v>
       </c>
       <c r="P33">
-        <v>18.98023474289466</v>
+        <v>4.217829942865478</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,43 +2020,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.6654111030048162</v>
+        <v>0.1478691340010702</v>
       </c>
       <c r="C34">
-        <v>4.459976878480137</v>
+        <v>0.9911059729955856</v>
       </c>
       <c r="D34">
-        <v>0.002615039767679185</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E34">
-        <v>0.2487368591709393</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F34">
-        <v>0.779918186657594</v>
+        <v>0.1733151525905765</v>
       </c>
       <c r="G34">
-        <v>1.267047888046696</v>
+        <v>0.2815661973437104</v>
       </c>
       <c r="H34">
-        <v>0.3590969788756241</v>
+        <v>0.0797993286390276</v>
       </c>
       <c r="I34">
-        <v>2.661488680633947</v>
+        <v>0.5914419290297659</v>
       </c>
       <c r="J34">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K34">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L34">
-        <v>2.244068993226848</v>
+        <v>0.4986819984948549</v>
       </c>
       <c r="M34">
-        <v>1.412086451251102</v>
+        <v>0.3137969891669116</v>
       </c>
       <c r="P34">
-        <v>14.67413920471835</v>
+        <v>3.260919823270744</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2064,43 +2064,43 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.4371422717049577</v>
+        <v>0.09714272704554613</v>
       </c>
       <c r="C35">
-        <v>2.929984810301975</v>
+        <v>0.6511077356226603</v>
       </c>
       <c r="D35">
-        <v>0.002033919819306034</v>
+        <v>0.0004519821820680073</v>
       </c>
       <c r="E35">
-        <v>0.1934620015773973</v>
+        <v>0.04299155590608828</v>
       </c>
       <c r="F35">
-        <v>0.389959093328797</v>
+        <v>0.08665757629528824</v>
       </c>
       <c r="G35">
-        <v>0.6335239440233481</v>
+        <v>0.1407830986718552</v>
       </c>
       <c r="H35">
-        <v>0.2476530888797409</v>
+        <v>0.05503401975105354</v>
       </c>
       <c r="I35">
-        <v>1.835509434919963</v>
+        <v>0.4078909855377696</v>
       </c>
       <c r="J35">
-        <v>0.3986926769482546</v>
+        <v>0.08859837265516766</v>
       </c>
       <c r="K35">
-        <v>0.5280407890257716</v>
+        <v>0.1173423975612825</v>
       </c>
       <c r="L35">
-        <v>3.366103489840271</v>
+        <v>0.7480229977422828</v>
       </c>
       <c r="M35">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="P35">
-        <v>13.08023519724643</v>
+        <v>2.90671893272143</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,49 +2108,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.3133101606076489</v>
+        <v>0.06962448013503311</v>
       </c>
       <c r="C36">
-        <v>2.099989113185714</v>
+        <v>0.466664247374603</v>
       </c>
       <c r="D36">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E36">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F36">
-        <v>0.3342506514246831</v>
+        <v>0.07427792253881849</v>
       </c>
       <c r="G36">
-        <v>0.5430205234485838</v>
+        <v>0.1206712274330187</v>
       </c>
       <c r="H36">
-        <v>0.09906123555189636</v>
+        <v>0.02201360790042141</v>
       </c>
       <c r="I36">
-        <v>0.7342037739679854</v>
+        <v>0.1631563942151078</v>
       </c>
       <c r="J36">
-        <v>0.2847804835344675</v>
+        <v>0.06328455189654834</v>
       </c>
       <c r="K36">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="L36">
-        <v>1.763197066106808</v>
+        <v>0.3918215702459575</v>
       </c>
       <c r="M36">
-        <v>1.10949649741158</v>
+        <v>0.2465547772025734</v>
       </c>
       <c r="N36">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O36">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P36">
-        <v>7.831402791801105</v>
+        <v>1.740311731511357</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2158,37 +2158,37 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1894780495103401</v>
+        <v>0.04210623322452001</v>
       </c>
       <c r="C37">
-        <v>1.269993416069455</v>
+        <v>0.2822207591265456</v>
       </c>
       <c r="D37">
-        <v>0.0008716799225597285</v>
+        <v>0.0001937066494577175</v>
       </c>
       <c r="E37">
-        <v>0.08291228639031312</v>
+        <v>0.0184249525311807</v>
       </c>
       <c r="H37">
-        <v>0.01238265444398704</v>
+        <v>0.002751700987552676</v>
       </c>
       <c r="I37">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="J37">
-        <v>0.2847804835344675</v>
+        <v>0.06328455189654834</v>
       </c>
       <c r="K37">
-        <v>0.3771719921612653</v>
+        <v>0.08381599825805897</v>
       </c>
       <c r="L37">
-        <v>1.923487708480155</v>
+        <v>0.42744171299559</v>
       </c>
       <c r="M37">
-        <v>1.210359815358087</v>
+        <v>0.2689688478573526</v>
       </c>
       <c r="P37">
-        <v>5.443213557616629</v>
+        <v>1.209603012803695</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2196,43 +2196,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1342757831175637</v>
+        <v>0.0298390629150142</v>
       </c>
       <c r="C38">
-        <v>0.8999953342224484</v>
+        <v>0.1999989631605441</v>
       </c>
       <c r="D38">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E38">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F38">
-        <v>0.1671253257123416</v>
+        <v>0.03713896126940924</v>
       </c>
       <c r="G38">
-        <v>0.2715102617242919</v>
+        <v>0.06033561371650933</v>
       </c>
       <c r="H38">
-        <v>0.01238265444398704</v>
+        <v>0.002751700987552676</v>
       </c>
       <c r="I38">
-        <v>0.09177547174599818</v>
+        <v>0.02039454927688848</v>
       </c>
       <c r="J38">
-        <v>0.3037658491034321</v>
+        <v>0.0675035220229849</v>
       </c>
       <c r="K38">
-        <v>0.4023167916386831</v>
+        <v>0.08940373147526291</v>
       </c>
       <c r="L38">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M38">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P38">
-        <v>3.495331245613905</v>
+        <v>0.7767402768030902</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2240,37 +2240,37 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.09250109503654394</v>
+        <v>0.02055579889700976</v>
       </c>
       <c r="C39">
-        <v>0.619996785797687</v>
+        <v>0.1377770635105971</v>
       </c>
       <c r="D39">
-        <v>0.0005811199483731523</v>
+        <v>0.000129137766305145</v>
       </c>
       <c r="E39">
-        <v>0.05527485759354208</v>
+        <v>0.0122833016874538</v>
       </c>
       <c r="F39">
-        <v>0.2785422095205693</v>
+        <v>0.06189826878234875</v>
       </c>
       <c r="G39">
-        <v>0.45251710287382</v>
+        <v>0.1005593561941822</v>
       </c>
       <c r="J39">
-        <v>0.03797073113792901</v>
+        <v>0.008437940252873113</v>
       </c>
       <c r="K39">
-        <v>0.05028959895483539</v>
+        <v>0.01117546643440786</v>
       </c>
       <c r="L39">
-        <v>1.602906423733463</v>
+        <v>0.3562014274963251</v>
       </c>
       <c r="M39">
-        <v>1.008633179465073</v>
+        <v>0.224140706547794</v>
       </c>
       <c r="P39">
-        <v>4.199213104061836</v>
+        <v>0.9331584675692968</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,43 +2278,43 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.07459765728753545</v>
+        <v>0.01657725717500787</v>
       </c>
       <c r="C40">
-        <v>0.4999974079013602</v>
+        <v>0.1111105350891912</v>
       </c>
       <c r="D40">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E40">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F40">
-        <v>0.05570844190411388</v>
+        <v>0.01237965375646975</v>
       </c>
       <c r="G40">
-        <v>0.090503420574764</v>
+        <v>0.02011187123883645</v>
       </c>
       <c r="H40">
-        <v>0.06191327221993522</v>
+        <v>0.01375850493776338</v>
       </c>
       <c r="I40">
-        <v>0.4588773587299909</v>
+        <v>0.1019727463844424</v>
       </c>
       <c r="J40">
-        <v>0.1708682901206806</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K40">
-        <v>0.2263031952967592</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L40">
-        <v>0.8014532118667315</v>
+        <v>0.1781007137481626</v>
       </c>
       <c r="M40">
-        <v>0.5043165897325365</v>
+        <v>0.112070353273897</v>
       </c>
       <c r="P40">
-        <v>3.056250800718238</v>
+        <v>0.679166844604053</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2322,43 +2322,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1969378152390935</v>
+        <v>0.0437639589420208</v>
       </c>
       <c r="C41">
-        <v>1.319993156859591</v>
+        <v>0.2933318126354647</v>
       </c>
       <c r="D41">
-        <v>0.001162239896746305</v>
+        <v>0.0002582755326102899</v>
       </c>
       <c r="E41">
-        <v>0.1105497151870842</v>
+        <v>0.02456660337490759</v>
       </c>
       <c r="F41">
-        <v>0.2228337676164555</v>
+        <v>0.04951861502587899</v>
       </c>
       <c r="G41">
-        <v>0.362013682299056</v>
+        <v>0.08044748495534579</v>
       </c>
       <c r="H41">
-        <v>0.03714796333196114</v>
+        <v>0.00825510296265803</v>
       </c>
       <c r="I41">
-        <v>0.2753264152379944</v>
+        <v>0.06118364783066543</v>
       </c>
       <c r="J41">
-        <v>0.2468097523965385</v>
+        <v>0.05484661164367522</v>
       </c>
       <c r="K41">
-        <v>0.3268823932064299</v>
+        <v>0.07264053182365111</v>
       </c>
       <c r="L41">
-        <v>0.6411625694933853</v>
+        <v>0.1424805709985299</v>
       </c>
       <c r="M41">
-        <v>0.4034532717860291</v>
+        <v>0.08965628261911757</v>
       </c>
       <c r="P41">
-        <v>4.144272742550365</v>
+        <v>0.9209494983445254</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2366,43 +2366,43 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.5251675073042493</v>
+        <v>0.1167038905120555</v>
       </c>
       <c r="C42">
-        <v>3.519981751625577</v>
+        <v>0.7822181670279061</v>
       </c>
       <c r="D42">
-        <v>0.0002905599741865762</v>
+        <v>6.456888315257249E-05</v>
       </c>
       <c r="E42">
-        <v>0.02763742879677104</v>
+        <v>0.006141650843726898</v>
       </c>
       <c r="F42">
-        <v>1.00275195427405</v>
+        <v>0.2228337676164556</v>
       </c>
       <c r="G42">
-        <v>1.629061570345751</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H42">
-        <v>0.1362091988838575</v>
+        <v>0.03026871086307944</v>
       </c>
       <c r="I42">
-        <v>1.00953018920598</v>
+        <v>0.2243400420457733</v>
       </c>
       <c r="J42">
-        <v>0.7973853538965091</v>
+        <v>0.1771967453103353</v>
       </c>
       <c r="K42">
-        <v>1.056081578051543</v>
+        <v>0.2346847951225651</v>
       </c>
       <c r="L42">
-        <v>2.404359635600194</v>
+        <v>0.5343021412444874</v>
       </c>
       <c r="M42">
-        <v>1.512949769197609</v>
+        <v>0.3362110598216909</v>
       </c>
       <c r="P42">
-        <v>13.62140649715628</v>
+        <v>3.026979221590284</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.8623489182439098</v>
+        <v>0.1916330929430909</v>
       </c>
       <c r="C43">
-        <v>5.779970035339729</v>
+        <v>1.284437785631051</v>
       </c>
       <c r="D43">
-        <v>0.001743359845119457</v>
+        <v>0.0003874132989154349</v>
       </c>
       <c r="E43">
-        <v>0.1658245727806262</v>
+        <v>0.0368499050623614</v>
       </c>
       <c r="F43">
-        <v>1.169877279986391</v>
+        <v>0.2599727288858649</v>
       </c>
       <c r="G43">
-        <v>1.900571832070044</v>
+        <v>0.4223492960155653</v>
       </c>
       <c r="H43">
-        <v>0.4705408688715076</v>
+        <v>0.1045646375270017</v>
       </c>
       <c r="I43">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="J43">
-        <v>1.651726804499912</v>
+        <v>0.3670504009999803</v>
       </c>
       <c r="K43">
-        <v>2.187597554535339</v>
+        <v>0.4861327898967421</v>
       </c>
       <c r="L43">
-        <v>4.488137986453697</v>
+        <v>0.9973639969897098</v>
       </c>
       <c r="M43">
-        <v>2.824172902502204</v>
+        <v>0.6275939783338232</v>
       </c>
       <c r="P43">
-        <v>24.98998004147641</v>
+        <v>5.553328898105867</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.226385485807083</v>
+        <v>0.2725301079571296</v>
       </c>
       <c r="C44">
-        <v>8.219957385898368</v>
+        <v>1.826657196866303</v>
       </c>
       <c r="D44">
-        <v>0.002905599741865762</v>
+        <v>0.0006456888315257247</v>
       </c>
       <c r="E44">
-        <v>0.2763742879677104</v>
+        <v>0.06141650843726898</v>
       </c>
       <c r="F44">
-        <v>0.9470435123699354</v>
+        <v>0.2104541138599857</v>
       </c>
       <c r="G44">
-        <v>1.538558149770988</v>
+        <v>0.3419018110602197</v>
       </c>
       <c r="H44">
-        <v>0.4705408688715076</v>
+        <v>0.1045646375270017</v>
       </c>
       <c r="I44">
-        <v>3.48746792634793</v>
+        <v>0.7749928725217621</v>
       </c>
       <c r="J44">
-        <v>0.8733268161723671</v>
+        <v>0.1940726258160816</v>
       </c>
       <c r="K44">
-        <v>1.156660775961214</v>
+        <v>0.2570357279913809</v>
       </c>
       <c r="L44">
-        <v>3.366103489840271</v>
+        <v>0.7480229977422828</v>
       </c>
       <c r="M44">
-        <v>2.118129676876653</v>
+        <v>0.4706954837503672</v>
       </c>
       <c r="N44">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O44">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P44">
-        <v>23.80587265425917</v>
+        <v>5.290193923168705</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.175659078851558</v>
+        <v>0.2612575730781243</v>
       </c>
       <c r="C45">
-        <v>7.879959148525439</v>
+        <v>1.751102033005654</v>
       </c>
       <c r="D45">
-        <v>0.009297919173970437</v>
+        <v>0.00206620426088232</v>
       </c>
       <c r="E45">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="F45">
-        <v>1.392711047602846</v>
+        <v>0.3094913439117437</v>
       </c>
       <c r="G45">
-        <v>2.2625855143691</v>
+        <v>0.5027967809709112</v>
       </c>
       <c r="H45">
-        <v>0.2724183977677149</v>
+        <v>0.06053742172615888</v>
       </c>
       <c r="I45">
-        <v>2.019060378411959</v>
+        <v>0.4486800840915466</v>
       </c>
       <c r="J45">
-        <v>1.461873148810267</v>
+        <v>0.3248606997356149</v>
       </c>
       <c r="K45">
-        <v>1.936149559761162</v>
+        <v>0.4302554577247026</v>
       </c>
       <c r="L45">
-        <v>6.091044410187155</v>
+        <v>1.353565424486035</v>
       </c>
       <c r="M45">
-        <v>3.832806081967276</v>
+        <v>0.851734684881617</v>
       </c>
       <c r="N45">
-        <v>0.05935670993944172</v>
+        <v>0.01319037998654261</v>
       </c>
       <c r="O45">
-        <v>0.2466899866437607</v>
+        <v>0.05481999703194682</v>
       </c>
       <c r="P45">
-        <v>29.52400910350832</v>
+        <v>6.56089091189074</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.110013140438527</v>
+        <v>0.2466695867641171</v>
       </c>
       <c r="C46">
-        <v>7.439961429572238</v>
+        <v>1.653324762127165</v>
       </c>
       <c r="D46">
-        <v>0.005811199483731523</v>
+        <v>0.001291377663051449</v>
       </c>
       <c r="E46">
-        <v>0.5527485759354208</v>
+        <v>0.122833016874538</v>
       </c>
       <c r="F46">
-        <v>1.504127931411075</v>
+        <v>0.3342506514246831</v>
       </c>
       <c r="G46">
-        <v>2.443592355518628</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H46">
-        <v>0.3962449422075854</v>
+        <v>0.08805443160168563</v>
       </c>
       <c r="I46">
-        <v>2.936815095871942</v>
+        <v>0.6526255768604313</v>
       </c>
       <c r="J46">
-        <v>1.936507288034379</v>
+        <v>0.4303349528965287</v>
       </c>
       <c r="K46">
-        <v>2.564769546696605</v>
+        <v>0.5699487881548011</v>
       </c>
       <c r="L46">
-        <v>8.174822761040659</v>
+        <v>1.816627280231258</v>
       </c>
       <c r="M46">
-        <v>5.144029215271871</v>
+        <v>1.143117603393749</v>
       </c>
       <c r="N46">
-        <v>0.04748536795155339</v>
+        <v>0.01055230398923408</v>
       </c>
       <c r="O46">
-        <v>0.1973519893150085</v>
+        <v>0.04385599762555745</v>
       </c>
       <c r="P46">
-        <v>34.45428083874923</v>
+        <v>7.656506853055382</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.8593650119524079</v>
+        <v>0.1909700026560907</v>
       </c>
       <c r="C47">
-        <v>5.759970139023673</v>
+        <v>1.279993364227483</v>
       </c>
       <c r="D47">
-        <v>0.009297919173970437</v>
+        <v>0.00206620426088232</v>
       </c>
       <c r="E47">
-        <v>0.8843977214966733</v>
+        <v>0.1965328269992607</v>
       </c>
       <c r="F47">
-        <v>1.114168838082277</v>
+        <v>0.247593075129395</v>
       </c>
       <c r="G47">
-        <v>1.81006841149528</v>
+        <v>0.4022374247767288</v>
       </c>
       <c r="H47">
-        <v>0.3343316699876502</v>
+        <v>0.07429592666392228</v>
       </c>
       <c r="I47">
-        <v>2.47793773714195</v>
+        <v>0.5506528304759889</v>
       </c>
       <c r="J47">
-        <v>2.392156061689527</v>
+        <v>0.5315902359310061</v>
       </c>
       <c r="K47">
-        <v>3.168244734154629</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="L47">
-        <v>8.815985330534044</v>
+        <v>1.959107851229787</v>
       </c>
       <c r="M47">
-        <v>5.547482487057899</v>
+        <v>1.232773886012867</v>
       </c>
       <c r="N47">
-        <v>0.1780701298183251</v>
+        <v>0.03957113995962781</v>
       </c>
       <c r="O47">
-        <v>0.7400699599312821</v>
+        <v>0.1644599910958404</v>
       </c>
       <c r="P47">
-        <v>34.09154615153959</v>
+        <v>7.575899144786574</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.9488822006974509</v>
+        <v>0.2108627112661002</v>
       </c>
       <c r="C48">
-        <v>6.359967028505302</v>
+        <v>1.413326006334513</v>
       </c>
       <c r="D48">
-        <v>0.01104127901908989</v>
+        <v>0.002453617559797755</v>
       </c>
       <c r="E48">
-        <v>1.0502222942773</v>
+        <v>0.2333827320616221</v>
       </c>
       <c r="F48">
-        <v>1.894087024739871</v>
+        <v>0.4209082277199715</v>
       </c>
       <c r="G48">
-        <v>3.077116299541976</v>
+        <v>0.6838036221204393</v>
       </c>
       <c r="H48">
-        <v>0.2971837066556891</v>
+        <v>0.06604082370126424</v>
       </c>
       <c r="I48">
-        <v>2.202611321903956</v>
+        <v>0.4894691826453235</v>
       </c>
       <c r="J48">
-        <v>2.012448750310237</v>
+        <v>0.447210833402275</v>
       </c>
       <c r="K48">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="L48">
-        <v>6.732206979680543</v>
+        <v>1.496045995484566</v>
       </c>
       <c r="M48">
-        <v>4.236259353753305</v>
+        <v>0.9413909675007345</v>
       </c>
       <c r="N48">
-        <v>0.02374268397577669</v>
+        <v>0.005276151994617041</v>
       </c>
       <c r="O48">
-        <v>0.09867599465750425</v>
+        <v>0.02192799881277873</v>
       </c>
       <c r="P48">
-        <v>31.60979366232428</v>
+        <v>7.024398591627619</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.001100560798726</v>
+        <v>0.2224667912886057</v>
       </c>
       <c r="C49">
-        <v>6.709965214036255</v>
+        <v>1.491103380896946</v>
       </c>
       <c r="D49">
-        <v>0.01133183899327647</v>
+        <v>0.002518186442950327</v>
       </c>
       <c r="E49">
-        <v>1.077859723074071</v>
+        <v>0.239524382905349</v>
       </c>
       <c r="F49">
-        <v>1.615544815219302</v>
+        <v>0.3590099589376228</v>
       </c>
       <c r="G49">
-        <v>2.624599196668157</v>
+        <v>0.5832442659262569</v>
       </c>
       <c r="H49">
-        <v>0.2848010522117021</v>
+        <v>0.06328912271371155</v>
       </c>
       <c r="I49">
-        <v>2.110835850157958</v>
+        <v>0.469074633368435</v>
       </c>
       <c r="J49">
-        <v>2.012448750310237</v>
+        <v>0.447210833402275</v>
       </c>
       <c r="K49">
-        <v>2.665348744606275</v>
+        <v>0.5922997210236167</v>
       </c>
       <c r="L49">
-        <v>15.38790166784124</v>
+        <v>3.41953370396472</v>
       </c>
       <c r="M49">
-        <v>9.6828785228647</v>
+        <v>2.151750782858821</v>
       </c>
       <c r="N49">
-        <v>0.01187134198788835</v>
+        <v>0.002638075997308521</v>
       </c>
       <c r="O49">
-        <v>0.04933799732875212</v>
+        <v>0.01096399940638936</v>
       </c>
       <c r="P49">
-        <v>45.24582527609854</v>
+        <v>10.05462783913301</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.2503165833426191</v>
+        <v>1.126424625041786</v>
       </c>
       <c r="C2">
-        <v>1.677769079846787</v>
+        <v>7.549960859310542</v>
       </c>
       <c r="D2">
-        <v>0.001485084312509167</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E2">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F2">
-        <v>0.5199454577717297</v>
+        <v>2.339754559972782</v>
       </c>
       <c r="G2">
-        <v>0.8446985920311306</v>
+        <v>3.801143664140087</v>
       </c>
       <c r="H2">
-        <v>0.06879252468881694</v>
+        <v>0.309566361099676</v>
       </c>
       <c r="I2">
-        <v>0.509863731922212</v>
+        <v>2.294386793649954</v>
       </c>
       <c r="J2">
-        <v>0.5737799371953718</v>
+        <v>2.582009717379173</v>
       </c>
       <c r="K2">
-        <v>0.7599317175397348</v>
+        <v>3.419692728928807</v>
       </c>
       <c r="L2">
-        <v>2.885231562720232</v>
+        <v>12.98354203224105</v>
       </c>
       <c r="M2">
-        <v>1.815539723037131</v>
+        <v>8.16992875366709</v>
       </c>
       <c r="N2">
-        <v>0.02110460797846817</v>
+        <v>0.09497073590310677</v>
       </c>
       <c r="O2">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="P2">
-        <v>10.15742856704358</v>
+        <v>45.7084285516961</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.2572790313561223</v>
+        <v>1.15775564110255</v>
       </c>
       <c r="C3">
-        <v>1.724435504584248</v>
+        <v>7.759959770629114</v>
       </c>
       <c r="D3">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E3">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F3">
-        <v>0.3961489202070319</v>
+        <v>1.782670140931644</v>
       </c>
       <c r="G3">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="H3">
-        <v>0.05228231876350084</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I3">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J3">
-        <v>0.5526850865631887</v>
+        <v>2.487082889534349</v>
       </c>
       <c r="K3">
-        <v>0.7319930514537151</v>
+        <v>3.293968731541718</v>
       </c>
       <c r="L3">
-        <v>2.422169706975011</v>
+        <v>10.89976368138754</v>
       </c>
       <c r="M3">
-        <v>1.524156804524999</v>
+        <v>6.858705620362494</v>
       </c>
       <c r="N3">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O3">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P3">
-        <v>8.940217489429459</v>
+        <v>40.23097870243255</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.262915298795625</v>
+        <v>1.183118844580313</v>
       </c>
       <c r="C4">
-        <v>1.762213086514573</v>
+        <v>7.929958889315579</v>
       </c>
       <c r="D4">
-        <v>0.00206620426088232</v>
+        <v>0.009297919173970437</v>
       </c>
       <c r="E4">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="F4">
-        <v>0.2847320363988043</v>
+        <v>1.281294163794619</v>
       </c>
       <c r="G4">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="H4">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I4">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J4">
-        <v>0.5231522956781329</v>
+        <v>2.354185330551598</v>
       </c>
       <c r="K4">
-        <v>0.6928789189332876</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="L4">
-        <v>1.211084853487505</v>
+        <v>5.44988184069377</v>
       </c>
       <c r="M4">
-        <v>0.7620784022624995</v>
+        <v>3.429352810181247</v>
       </c>
       <c r="N4">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O4">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P4">
-        <v>6.830039845717769</v>
+        <v>30.73517930572995</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.2854603685536358</v>
+        <v>1.284571658491361</v>
       </c>
       <c r="C5">
-        <v>1.913323414235872</v>
+        <v>8.609955364061427</v>
       </c>
       <c r="D5">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E5">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F5">
-        <v>0.4456675352329111</v>
+        <v>2.005503908548099</v>
       </c>
       <c r="G5">
-        <v>0.724027364598112</v>
+        <v>3.258123140691503</v>
       </c>
       <c r="H5">
-        <v>0.08530273061413299</v>
+        <v>0.3838622877635984</v>
       </c>
       <c r="I5">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="J5">
-        <v>0.3881452516321632</v>
+        <v>1.746653632344734</v>
       </c>
       <c r="K5">
-        <v>0.5140714559827617</v>
+        <v>2.313321551922428</v>
       </c>
       <c r="L5">
-        <v>0.7836431404919151</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M5">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="N5">
-        <v>0.02110460797846817</v>
+        <v>0.09497073590310677</v>
       </c>
       <c r="O5">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="P5">
-        <v>6.553778818639282</v>
+        <v>29.49200468387676</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.3424861332356627</v>
+        <v>1.541187599560482</v>
       </c>
       <c r="C6">
-        <v>2.295543654942692</v>
+        <v>10.32994644724211</v>
       </c>
       <c r="D6">
-        <v>0.002130773144034891</v>
+        <v>0.009588479148157011</v>
       </c>
       <c r="E6">
-        <v>0.2026744778429876</v>
+        <v>0.9120351502934443</v>
       </c>
       <c r="F6">
-        <v>0.4085285739635018</v>
+        <v>1.838378582835758</v>
       </c>
       <c r="G6">
-        <v>0.6636917508816028</v>
+        <v>2.986612878967212</v>
       </c>
       <c r="H6">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I6">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J6">
-        <v>0.3079848192298686</v>
+        <v>1.385931686534408</v>
       </c>
       <c r="K6">
-        <v>0.4079045248558871</v>
+        <v>1.835570361851492</v>
       </c>
       <c r="L6">
-        <v>0.4630618557452224</v>
+        <v>2.083778350853501</v>
       </c>
       <c r="M6">
-        <v>0.2913829185121322</v>
+        <v>1.311223133304595</v>
       </c>
       <c r="N6">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O6">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P6">
-        <v>5.921811138978694</v>
+        <v>26.64815012540411</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.2970644485761411</v>
+        <v>1.336790018592635</v>
       </c>
       <c r="C7">
-        <v>1.991100788798307</v>
+        <v>8.959953549592385</v>
       </c>
       <c r="D7">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E7">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F7">
-        <v>0.3961489202070319</v>
+        <v>1.782670140931644</v>
       </c>
       <c r="G7">
-        <v>0.6435798796427663</v>
+        <v>2.896109458392448</v>
       </c>
       <c r="H7">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I7">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J7">
-        <v>0.1771967453103353</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K7">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L7">
-        <v>0.3562014274963251</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M7">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="N7">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O7">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P7">
-        <v>5.200884159852257</v>
+        <v>23.40397871933516</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.2370547776026127</v>
+        <v>1.066746499211757</v>
       </c>
       <c r="C8">
-        <v>1.588880651775435</v>
+        <v>7.149962932989453</v>
       </c>
       <c r="D8">
-        <v>0.001678790961966885</v>
+        <v>0.00755455932885098</v>
       </c>
       <c r="E8">
-        <v>0.1596829219368993</v>
+        <v>0.718573148716047</v>
       </c>
       <c r="F8">
-        <v>0.2104541138599857</v>
+        <v>0.9470435123699354</v>
       </c>
       <c r="G8">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H8">
-        <v>0.0797993286390276</v>
+        <v>0.3590969788756241</v>
       </c>
       <c r="I8">
-        <v>0.5914419290297659</v>
+        <v>2.661488680633947</v>
       </c>
       <c r="J8">
-        <v>0.2025105660689547</v>
+        <v>0.9112975473102961</v>
       </c>
       <c r="K8">
-        <v>0.2682111944257887</v>
+        <v>1.206950374916049</v>
       </c>
       <c r="L8">
-        <v>0.42744171299559</v>
+        <v>1.923487708480155</v>
       </c>
       <c r="M8">
-        <v>0.2689688478573526</v>
+        <v>1.210359815358087</v>
       </c>
       <c r="N8">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O8">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P8">
-        <v>4.432434947828389</v>
+        <v>19.94595726522775</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.2082103501180989</v>
+        <v>0.9369465755314452</v>
       </c>
       <c r="C9">
-        <v>1.395548320720241</v>
+        <v>6.279967443241088</v>
       </c>
       <c r="D9">
-        <v>0.002582755326102899</v>
+        <v>0.01162239896746305</v>
       </c>
       <c r="E9">
-        <v>0.2456660337490759</v>
+        <v>1.105497151870842</v>
       </c>
       <c r="F9">
-        <v>0.247593075129395</v>
+        <v>1.114168838082277</v>
       </c>
       <c r="G9">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H9">
-        <v>0.1210748434523178</v>
+        <v>0.5448367955354299</v>
       </c>
       <c r="I9">
-        <v>0.8973601681830932</v>
+        <v>4.038120756823918</v>
       </c>
       <c r="J9">
-        <v>0.1223501336666601</v>
+        <v>0.5505756014999706</v>
       </c>
       <c r="K9">
-        <v>0.162044263298914</v>
+        <v>0.7291991848451131</v>
       </c>
       <c r="L9">
-        <v>0.6055424267437527</v>
+        <v>2.724940920346885</v>
       </c>
       <c r="M9">
-        <v>0.3810392011312497</v>
+        <v>1.714676405090624</v>
       </c>
       <c r="N9">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O9">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P9">
-        <v>4.818453147103027</v>
+        <v>21.68303916196362</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.1833444643555871</v>
+        <v>0.8250500896001421</v>
       </c>
       <c r="C10">
-        <v>1.228882518086455</v>
+        <v>5.529971331389046</v>
       </c>
       <c r="D10">
-        <v>0.001097671013593732</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E10">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F10">
-        <v>0.1856948063470463</v>
+        <v>0.8356266285617079</v>
       </c>
       <c r="G10">
-        <v>0.3016780685825466</v>
+        <v>1.35755130862146</v>
       </c>
       <c r="H10">
-        <v>0.07429592666392228</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I10">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J10">
-        <v>0.1181311635402236</v>
+        <v>0.5315902359310061</v>
       </c>
       <c r="K10">
-        <v>0.1564565300817101</v>
+        <v>0.7040543853676954</v>
       </c>
       <c r="L10">
-        <v>0.3205812847466927</v>
+        <v>1.442615781360116</v>
       </c>
       <c r="M10">
-        <v>0.2017266358930146</v>
+        <v>0.9077698615185654</v>
       </c>
       <c r="N10">
-        <v>0.01582845598385113</v>
+        <v>0.07122805192733005</v>
       </c>
       <c r="O10">
-        <v>0.06578399643833618</v>
+        <v>0.2960279839725128</v>
       </c>
       <c r="P10">
-        <v>3.508562416552325</v>
+        <v>15.78853087448546</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.1034420847720492</v>
+        <v>0.4654893814742213</v>
       </c>
       <c r="C11">
-        <v>0.6933297389565537</v>
+        <v>3.119983825304488</v>
       </c>
       <c r="D11">
-        <v>0.0005165510652205799</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E11">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F11">
-        <v>0.06189826878234875</v>
+        <v>0.2785422095205693</v>
       </c>
       <c r="G11">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="H11">
-        <v>0.04953061777594818</v>
+        <v>0.2228877799917668</v>
       </c>
       <c r="I11">
-        <v>0.3671018869839927</v>
+        <v>1.651958491427967</v>
       </c>
       <c r="J11">
-        <v>0.1054742531609139</v>
+        <v>0.4746341392241125</v>
       </c>
       <c r="K11">
-        <v>0.1396933304300983</v>
+        <v>0.6286199869354423</v>
       </c>
       <c r="L11">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M11">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="N11">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O11">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P11">
-        <v>2.028860738911672</v>
+        <v>9.129873325102517</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,49 +980,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.07095066070903379</v>
+        <v>0.3192779731906517</v>
       </c>
       <c r="C12">
-        <v>0.4755530901817383</v>
+        <v>2.139988905817823</v>
       </c>
       <c r="D12">
-        <v>0.0005165510652205799</v>
+        <v>0.002324479793492609</v>
       </c>
       <c r="E12">
-        <v>0.04913320674981518</v>
+        <v>0.2210994303741683</v>
       </c>
       <c r="F12">
-        <v>0.04951861502587899</v>
+        <v>0.2228337676164555</v>
       </c>
       <c r="G12">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H12">
-        <v>0.01926190691286873</v>
+        <v>0.08667858110790928</v>
       </c>
       <c r="I12">
-        <v>0.1427618449382193</v>
+        <v>0.6424283022219871</v>
       </c>
       <c r="J12">
-        <v>0.05062764151723868</v>
+        <v>0.227824386827574</v>
       </c>
       <c r="K12">
-        <v>0.06705279860644717</v>
+        <v>0.3017375937290123</v>
       </c>
       <c r="L12">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M12">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="N12">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O12">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P12">
-        <v>1.26516480508685</v>
+        <v>5.693241622890825</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1030,43 +1030,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.0437639589420208</v>
+        <v>0.1969378152390935</v>
       </c>
       <c r="C13">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="D13">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E13">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F13">
-        <v>0.01237965375646975</v>
+        <v>0.05570844190411388</v>
       </c>
       <c r="G13">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="J13">
-        <v>0.0464086713908021</v>
+        <v>0.2088390212586095</v>
       </c>
       <c r="K13">
-        <v>0.06146506538924325</v>
+        <v>0.2765927942515946</v>
       </c>
       <c r="L13">
-        <v>0.1068604282488975</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M13">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="N13">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O13">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P13">
-        <v>0.7086092870579269</v>
+        <v>3.188741791760671</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,43 +1074,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.03547533035451689</v>
+        <v>0.1596389865953259</v>
       </c>
       <c r="C14">
-        <v>0.2377765450908692</v>
+        <v>1.069994452908912</v>
       </c>
       <c r="D14">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E14">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F14">
-        <v>0.06189826878234875</v>
+        <v>0.2785422095205693</v>
       </c>
       <c r="G14">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="J14">
-        <v>0.05906558177011179</v>
+        <v>0.265795117965503</v>
       </c>
       <c r="K14">
-        <v>0.07822826504085505</v>
+        <v>0.3520271926838477</v>
       </c>
       <c r="L14">
-        <v>0.1068604282488975</v>
+        <v>0.4808719271200388</v>
       </c>
       <c r="M14">
-        <v>0.06724221196433816</v>
+        <v>0.3025899538395219</v>
       </c>
       <c r="N14">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O14">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P14">
-        <v>0.8301661157954305</v>
+        <v>3.735747521079438</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1118,37 +1118,37 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.02652361148001263</v>
+        <v>0.1193562516600568</v>
       </c>
       <c r="C15">
-        <v>0.1777768561427059</v>
+        <v>0.7999958526421765</v>
       </c>
       <c r="D15">
-        <v>0.0003228444157628624</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E15">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F15">
-        <v>0.02475930751293949</v>
+        <v>0.1114168838082278</v>
       </c>
       <c r="G15">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="J15">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K15">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L15">
-        <v>0.213720856497795</v>
+        <v>0.9617438542400777</v>
       </c>
       <c r="M15">
-        <v>0.1344844239286763</v>
+        <v>0.6051799076790437</v>
       </c>
       <c r="P15">
-        <v>0.7367802267669641</v>
+        <v>3.315511020451338</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1156,43 +1156,43 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.02287661490151086</v>
+        <v>0.1029447670567989</v>
       </c>
       <c r="C16">
-        <v>0.1533325384230839</v>
+        <v>0.6899964229038775</v>
       </c>
       <c r="D16">
-        <v>0.0003228444157628624</v>
+        <v>0.001452799870932881</v>
       </c>
       <c r="E16">
-        <v>0.03070825421863449</v>
+        <v>0.1381871439838552</v>
       </c>
       <c r="F16">
-        <v>0.02475930751293949</v>
+        <v>0.1114168838082278</v>
       </c>
       <c r="G16">
-        <v>0.04022374247767289</v>
+        <v>0.181006841149528</v>
       </c>
       <c r="H16">
-        <v>0.01375850493776338</v>
+        <v>0.06191327221993522</v>
       </c>
       <c r="I16">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="J16">
-        <v>0.03375176101149245</v>
+        <v>0.151882924551716</v>
       </c>
       <c r="K16">
-        <v>0.04470186573763146</v>
+        <v>0.2011583958193416</v>
       </c>
       <c r="L16">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M16">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P16">
-        <v>0.7565792470429937</v>
+        <v>3.404606611693472</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,43 +1200,43 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.0437639589420208</v>
+        <v>0.1969378152390935</v>
       </c>
       <c r="C17">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="D17">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E17">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F17">
-        <v>0.09903723005175798</v>
+        <v>0.445667535232911</v>
       </c>
       <c r="G17">
-        <v>0.1608949699106916</v>
+        <v>0.724027364598112</v>
       </c>
       <c r="H17">
-        <v>0.002751700987552676</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I17">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J17">
-        <v>0.0675035220229849</v>
+        <v>0.3037658491034321</v>
       </c>
       <c r="K17">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="L17">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M17">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P17">
-        <v>1.10448986068596</v>
+        <v>4.970204373086823</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,49 +1244,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.1458798631400693</v>
+        <v>0.6564593841303117</v>
       </c>
       <c r="C18">
-        <v>0.9777727087848828</v>
+        <v>4.39997718953197</v>
       </c>
       <c r="D18">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E18">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F18">
-        <v>0.2847320363988043</v>
+        <v>1.281294163794619</v>
       </c>
       <c r="G18">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="H18">
-        <v>0.02201360790042141</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I18">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J18">
-        <v>0.2067295361953913</v>
+        <v>0.9302829128792606</v>
       </c>
       <c r="K18">
-        <v>0.2737989276429926</v>
+        <v>1.232095174393467</v>
       </c>
       <c r="L18">
-        <v>0.6767827122430176</v>
+        <v>3.045522205093577</v>
       </c>
       <c r="M18">
-        <v>0.4258673424408085</v>
+        <v>1.916403040983638</v>
       </c>
       <c r="N18">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O18">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P18">
-        <v>3.708764220400347</v>
+        <v>16.68943899180156</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1294,49 +1294,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.23141851016311</v>
+        <v>1.041383295733995</v>
       </c>
       <c r="C19">
-        <v>1.55110306984511</v>
+        <v>6.979963814302995</v>
       </c>
       <c r="D19">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E19">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F19">
-        <v>0.3218709976682134</v>
+        <v>1.44841948950696</v>
       </c>
       <c r="G19">
-        <v>0.5229086522097475</v>
+        <v>2.353088934943864</v>
       </c>
       <c r="H19">
-        <v>0.1183231424647651</v>
+        <v>0.5324541410914427</v>
       </c>
       <c r="I19">
-        <v>0.8769656189062047</v>
+        <v>3.946345285077921</v>
       </c>
       <c r="J19">
-        <v>0.3501745204942341</v>
+        <v>1.575785342224054</v>
       </c>
       <c r="K19">
-        <v>0.4637818570279263</v>
+        <v>2.087018356625668</v>
       </c>
       <c r="L19">
-        <v>1.032984139739342</v>
+        <v>4.648428628827042</v>
       </c>
       <c r="M19">
-        <v>0.6500080489886025</v>
+        <v>2.925036220448711</v>
       </c>
       <c r="N19">
-        <v>0.007914227991925564</v>
+        <v>0.03561402596366502</v>
       </c>
       <c r="O19">
-        <v>0.03289199821916809</v>
+        <v>0.1480139919862564</v>
       </c>
       <c r="P19">
-        <v>6.203788321806505</v>
+        <v>27.91704744812928</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1344,43 +1344,43 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.2811502816881336</v>
+        <v>1.265176267596601</v>
       </c>
       <c r="C20">
-        <v>1.884434675112684</v>
+        <v>8.479956038007074</v>
       </c>
       <c r="D20">
-        <v>0.001097671013593732</v>
+        <v>0.004939519561171795</v>
       </c>
       <c r="E20">
-        <v>0.1044080643433573</v>
+        <v>0.4698362895451076</v>
       </c>
       <c r="F20">
-        <v>0.2599727288858649</v>
+        <v>1.169877279986391</v>
       </c>
       <c r="G20">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="H20">
-        <v>0.1045646375270017</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I20">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J20">
-        <v>0.2742330582183761</v>
+        <v>1.234048761982693</v>
       </c>
       <c r="K20">
-        <v>0.3632026591182556</v>
+        <v>1.63441196603215</v>
       </c>
       <c r="L20">
-        <v>0.7836431404919151</v>
+        <v>3.526394132213617</v>
       </c>
       <c r="M20">
-        <v>0.4931095544051468</v>
+        <v>2.21899299482316</v>
       </c>
       <c r="P20">
-        <v>5.747158639341656</v>
+        <v>25.86221387703744</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1388,49 +1388,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.3030322611591441</v>
+        <v>1.363645175216148</v>
       </c>
       <c r="C21">
-        <v>2.031100581430415</v>
+        <v>9.139952616436865</v>
       </c>
       <c r="D21">
-        <v>0.001485084312509167</v>
+        <v>0.006682879406291252</v>
       </c>
       <c r="E21">
-        <v>0.1412579694057187</v>
+        <v>0.6356608623257338</v>
       </c>
       <c r="F21">
-        <v>0.4209082277199715</v>
+        <v>1.894087024739871</v>
       </c>
       <c r="G21">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="H21">
-        <v>0.08530273061413299</v>
+        <v>0.3838622877635984</v>
       </c>
       <c r="I21">
-        <v>0.6322310275835428</v>
+        <v>2.845039624125943</v>
       </c>
       <c r="J21">
-        <v>0.3290796698620514</v>
+        <v>1.480858514379231</v>
       </c>
       <c r="K21">
-        <v>0.4358431909419067</v>
+        <v>1.96129435923858</v>
       </c>
       <c r="L21">
-        <v>0.9617438542400777</v>
+        <v>4.327847344080348</v>
       </c>
       <c r="M21">
-        <v>0.6051799076790437</v>
+        <v>2.723309584555696</v>
       </c>
       <c r="N21">
-        <v>0.0237426839757767</v>
+        <v>0.1068420778909951</v>
       </c>
       <c r="O21">
-        <v>0.09867599465750425</v>
+        <v>0.4440419759587692</v>
       </c>
       <c r="P21">
-        <v>6.753386805702233</v>
+        <v>30.39024062566005</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1438,49 +1438,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.266893840517627</v>
+        <v>1.201022282329321</v>
       </c>
       <c r="C22">
-        <v>1.788879614935979</v>
+        <v>8.049958267211906</v>
       </c>
       <c r="D22">
-        <v>0.00206620426088232</v>
+        <v>0.009297919173970437</v>
       </c>
       <c r="E22">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="F22">
-        <v>0.5447047652846688</v>
+        <v>2.451171443781009</v>
       </c>
       <c r="G22">
-        <v>0.8849223345088036</v>
+        <v>3.982150505289615</v>
       </c>
       <c r="H22">
-        <v>0.07154422567636959</v>
+        <v>0.3219490155436631</v>
       </c>
       <c r="I22">
-        <v>0.5302582811991005</v>
+        <v>2.386162265395952</v>
       </c>
       <c r="J22">
-        <v>0.5400281761838792</v>
+        <v>2.430126792827457</v>
       </c>
       <c r="K22">
-        <v>0.7152298518021033</v>
+        <v>3.218534333109465</v>
       </c>
       <c r="L22">
-        <v>2.172828707727583</v>
+        <v>9.777729184774127</v>
       </c>
       <c r="M22">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="N22">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O22">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P22">
-        <v>9.135555440652592</v>
+        <v>41.10999948293667</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1488,49 +1488,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.2227983364321059</v>
+        <v>1.002592513944477</v>
       </c>
       <c r="C23">
-        <v>1.49332559159873</v>
+        <v>6.719965162194288</v>
       </c>
       <c r="D23">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E23">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F23">
-        <v>0.2599727288858649</v>
+        <v>1.169877279986391</v>
       </c>
       <c r="G23">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="H23">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I23">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J23">
-        <v>0.569560967068935</v>
+        <v>2.563024351810208</v>
       </c>
       <c r="K23">
-        <v>0.7543439843225307</v>
+        <v>3.394547929451389</v>
       </c>
       <c r="L23">
-        <v>2.778371134471336</v>
+        <v>12.50267010512101</v>
       </c>
       <c r="M23">
-        <v>1.748297511072793</v>
+        <v>7.867338799827567</v>
       </c>
       <c r="N23">
-        <v>0.02110460797846817</v>
+        <v>0.09497073590310677</v>
       </c>
       <c r="O23">
-        <v>0.08771199525111491</v>
+        <v>0.394703978630017</v>
       </c>
       <c r="P23">
-        <v>9.070180281259093</v>
+        <v>40.81581126566593</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1538,49 +1538,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.2072157146875985</v>
+        <v>0.9324707160941931</v>
       </c>
       <c r="C24">
-        <v>1.38888168861489</v>
+        <v>6.249967598767006</v>
       </c>
       <c r="D24">
-        <v>0.001872497611424602</v>
+        <v>0.008426239251410707</v>
       </c>
       <c r="E24">
-        <v>0.17810787446808</v>
+        <v>0.8014854351063602</v>
       </c>
       <c r="F24">
-        <v>0.2971116901552739</v>
+        <v>1.337002605698733</v>
       </c>
       <c r="G24">
-        <v>0.4826849097320746</v>
+        <v>2.172082093794335</v>
       </c>
       <c r="H24">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I24">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J24">
-        <v>0.5442471463103158</v>
+        <v>2.449112158396421</v>
       </c>
       <c r="K24">
-        <v>0.7208175850193073</v>
+        <v>3.243679132586882</v>
       </c>
       <c r="L24">
-        <v>3.312673275715822</v>
+        <v>14.9070297407212</v>
       </c>
       <c r="M24">
-        <v>2.084508570894484</v>
+        <v>9.380288569025176</v>
       </c>
       <c r="N24">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O24">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P24">
-        <v>9.795348836045465</v>
+        <v>44.0790697622046</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1588,49 +1588,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.2224667912886057</v>
+        <v>1.001100560798726</v>
       </c>
       <c r="C25">
-        <v>1.491103380896946</v>
+        <v>6.709965214036255</v>
       </c>
       <c r="D25">
-        <v>0.002518186442950327</v>
+        <v>0.01133183899327647</v>
       </c>
       <c r="E25">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="F25">
-        <v>0.3590099589376228</v>
+        <v>1.615544815219302</v>
       </c>
       <c r="G25">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H25">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I25">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J25">
-        <v>0.447210833402275</v>
+        <v>2.012448750310237</v>
       </c>
       <c r="K25">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="L25">
-        <v>3.41953370396472</v>
+        <v>15.38790166784124</v>
       </c>
       <c r="M25">
-        <v>2.151750782858821</v>
+        <v>9.6828785228647</v>
       </c>
       <c r="N25">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O25">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P25">
-        <v>10.05462783913301</v>
+        <v>45.24582527609854</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1638,49 +1638,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.2476642221946177</v>
+        <v>1.114488999875779</v>
       </c>
       <c r="C26">
-        <v>1.659991394232517</v>
+        <v>7.469961274046324</v>
       </c>
       <c r="D26">
-        <v>0.003034737508170906</v>
+        <v>0.01365631878676908</v>
       </c>
       <c r="E26">
-        <v>0.2886575896551641</v>
+        <v>1.298959153448239</v>
       </c>
       <c r="F26">
-        <v>0.4704268427458504</v>
+        <v>2.116920792356327</v>
       </c>
       <c r="G26">
-        <v>0.764251107075785</v>
+        <v>3.439129981841032</v>
       </c>
       <c r="H26">
-        <v>0.05778572073860621</v>
+        <v>0.2600357433237279</v>
       </c>
       <c r="I26">
-        <v>0.428285534814658</v>
+        <v>1.927284906665961</v>
       </c>
       <c r="J26">
-        <v>0.5231522956781329</v>
+        <v>2.354185330551598</v>
       </c>
       <c r="K26">
-        <v>0.6928789189332876</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="L26">
-        <v>3.170192704717293</v>
+        <v>14.26586717122781</v>
       </c>
       <c r="M26">
-        <v>1.994852288275366</v>
+        <v>8.976835297239148</v>
       </c>
       <c r="N26">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O26">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P26">
-        <v>10.35558165818424</v>
+        <v>46.60011746182908</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1688,49 +1688,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.2446803159031164</v>
+        <v>1.101061421564022</v>
       </c>
       <c r="C27">
-        <v>1.639991497916462</v>
+        <v>7.379961740624082</v>
       </c>
       <c r="D27">
-        <v>0.002776461975560616</v>
+        <v>0.01249407889002277</v>
       </c>
       <c r="E27">
-        <v>0.2640909862802566</v>
+        <v>1.188409438261155</v>
       </c>
       <c r="F27">
-        <v>0.4332878814764411</v>
+        <v>1.949795466643985</v>
       </c>
       <c r="G27">
-        <v>0.7039154933592756</v>
+        <v>3.167619720116739</v>
       </c>
       <c r="H27">
-        <v>0.05228231876350084</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I27">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J27">
-        <v>0.5273712658045695</v>
+        <v>2.373170696120563</v>
       </c>
       <c r="K27">
-        <v>0.6984666521504916</v>
+        <v>3.143099934677211</v>
       </c>
       <c r="L27">
-        <v>2.172828707727583</v>
+        <v>9.777729184774127</v>
       </c>
       <c r="M27">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="N27">
-        <v>0.04484729195424486</v>
+        <v>0.2018128137941019</v>
       </c>
       <c r="O27">
-        <v>0.1863879899086192</v>
+        <v>0.8387459545887864</v>
       </c>
       <c r="P27">
-        <v>8.725681609422546</v>
+        <v>39.26556724240146</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1738,49 +1738,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.2552897604951214</v>
+        <v>1.148803922228045</v>
       </c>
       <c r="C28">
-        <v>1.711102240373545</v>
+        <v>7.69996008168095</v>
       </c>
       <c r="D28">
-        <v>0.002711893092408044</v>
+        <v>0.0122035189158362</v>
       </c>
       <c r="E28">
-        <v>0.2579493354365296</v>
+        <v>1.160772009464384</v>
       </c>
       <c r="F28">
-        <v>0.4704268427458504</v>
+        <v>2.116920792356327</v>
       </c>
       <c r="G28">
-        <v>0.764251107075785</v>
+        <v>3.439129981841032</v>
       </c>
       <c r="H28">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I28">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J28">
-        <v>0.5104953852988234</v>
+        <v>2.297229233844705</v>
       </c>
       <c r="K28">
-        <v>0.6761157192816757</v>
+        <v>3.042520736767541</v>
       </c>
       <c r="L28">
-        <v>2.671510706222437</v>
+        <v>12.02179817800097</v>
       </c>
       <c r="M28">
-        <v>1.681055299108455</v>
+        <v>7.564748845988046</v>
       </c>
       <c r="N28">
-        <v>0.01846653198115965</v>
+        <v>0.08309939391521838</v>
       </c>
       <c r="O28">
-        <v>0.07674799584472555</v>
+        <v>0.3453659813012649</v>
       </c>
       <c r="P28">
-        <v>9.651632823303101</v>
+        <v>43.43234770486396</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1788,49 +1788,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.2387125033201136</v>
+        <v>1.07420626494051</v>
       </c>
       <c r="C29">
-        <v>1.599991705284353</v>
+        <v>7.199962673779587</v>
       </c>
       <c r="D29">
-        <v>0.002324479793492609</v>
+        <v>0.01046015907071674</v>
       </c>
       <c r="E29">
-        <v>0.2210994303741683</v>
+        <v>0.9949474366837573</v>
       </c>
       <c r="F29">
-        <v>0.4209082277199715</v>
+        <v>1.894087024739871</v>
       </c>
       <c r="G29">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="H29">
-        <v>0.07429592666392228</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I29">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J29">
-        <v>0.3501745204942341</v>
+        <v>1.575785342224054</v>
       </c>
       <c r="K29">
-        <v>0.4637818570279263</v>
+        <v>2.087018356625668</v>
       </c>
       <c r="L29">
-        <v>2.172828707727583</v>
+        <v>9.777729184774127</v>
       </c>
       <c r="M29">
-        <v>1.367258309941543</v>
+        <v>6.152662394736946</v>
       </c>
       <c r="N29">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O29">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P29">
-        <v>8.213842497962226</v>
+        <v>36.96229124083001</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1838,49 +1838,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.2715354725266291</v>
+        <v>1.221909626369831</v>
       </c>
       <c r="C30">
-        <v>1.819990564760952</v>
+        <v>8.189957541424285</v>
       </c>
       <c r="D30">
-        <v>0.00103310213044116</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E30">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F30">
-        <v>0.4828064965023202</v>
+        <v>2.172629234260441</v>
       </c>
       <c r="G30">
-        <v>0.7843629783146213</v>
+        <v>3.529633402415795</v>
       </c>
       <c r="H30">
-        <v>0.05228231876350084</v>
+        <v>0.2352704344357538</v>
       </c>
       <c r="I30">
-        <v>0.387496436260881</v>
+        <v>1.743733963173965</v>
       </c>
       <c r="J30">
-        <v>0.3375176101149244</v>
+        <v>1.51882924551716</v>
       </c>
       <c r="K30">
-        <v>0.4470186573763146</v>
+        <v>2.011583958193416</v>
       </c>
       <c r="L30">
-        <v>2.065968279478685</v>
+        <v>9.296857257654084</v>
       </c>
       <c r="M30">
-        <v>1.300016097977205</v>
+        <v>5.850072440897422</v>
       </c>
       <c r="N30">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O30">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P30">
-        <v>8.0754985785135</v>
+        <v>36.33974360331076</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1888,43 +1888,43 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.2645730245131257</v>
+        <v>1.190578610309066</v>
       </c>
       <c r="C31">
-        <v>1.773324140023493</v>
+        <v>7.979958630105711</v>
       </c>
       <c r="D31">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E31">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F31">
-        <v>0.2104541138599857</v>
+        <v>0.9470435123699354</v>
       </c>
       <c r="G31">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H31">
-        <v>0.09906123555189636</v>
+        <v>0.4457755599835335</v>
       </c>
       <c r="I31">
-        <v>0.7342037739679854</v>
+        <v>3.303916982855934</v>
       </c>
       <c r="J31">
-        <v>0.1771967453103353</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K31">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L31">
-        <v>1.602906423733463</v>
+        <v>7.213078906800581</v>
       </c>
       <c r="M31">
-        <v>1.008633179465073</v>
+        <v>4.538849307592827</v>
       </c>
       <c r="P31">
-        <v>6.459351682061901</v>
+        <v>29.06708256927854</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1932,43 +1932,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.2353970518851118</v>
+        <v>1.059286733483003</v>
       </c>
       <c r="C32">
-        <v>1.577769598266515</v>
+        <v>7.099963192199325</v>
       </c>
       <c r="D32">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E32">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F32">
-        <v>0.2723523826423344</v>
+        <v>1.225585721890505</v>
       </c>
       <c r="G32">
-        <v>0.4424611672544018</v>
+        <v>1.991075252644808</v>
       </c>
       <c r="H32">
-        <v>0.1155714414772124</v>
+        <v>0.5200714866474558</v>
       </c>
       <c r="I32">
-        <v>0.856571069629316</v>
+        <v>3.854569813331922</v>
       </c>
       <c r="J32">
-        <v>0.1856346855632084</v>
+        <v>0.8353560850344378</v>
       </c>
       <c r="K32">
-        <v>0.245860261556973</v>
+        <v>1.106371177006378</v>
       </c>
       <c r="L32">
-        <v>1.246704996237137</v>
+        <v>5.610172483067117</v>
       </c>
       <c r="M32">
-        <v>0.7844924729172789</v>
+        <v>3.530216128127754</v>
       </c>
       <c r="P32">
-        <v>6.018671104971404</v>
+        <v>27.08401997237133</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1976,43 +1976,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.1876545512210893</v>
+        <v>0.8444454804949015</v>
       </c>
       <c r="C33">
-        <v>1.257771257209644</v>
+        <v>5.659970657443401</v>
       </c>
       <c r="D33">
-        <v>0.00103310213044116</v>
+        <v>0.004648959586985218</v>
       </c>
       <c r="E33">
-        <v>0.09826641349963036</v>
+        <v>0.4421988607483366</v>
       </c>
       <c r="F33">
-        <v>0.2847320363988043</v>
+        <v>1.281294163794619</v>
       </c>
       <c r="G33">
-        <v>0.4625730384932383</v>
+        <v>2.081578673219571</v>
       </c>
       <c r="H33">
-        <v>0.09630953456434366</v>
+        <v>0.4333929055395464</v>
       </c>
       <c r="I33">
-        <v>0.7138092246910966</v>
+        <v>3.212141511109935</v>
       </c>
       <c r="J33">
-        <v>0.1054742531609139</v>
+        <v>0.4746341392241125</v>
       </c>
       <c r="K33">
-        <v>0.1396933304300983</v>
+        <v>0.6286199869354423</v>
       </c>
       <c r="L33">
-        <v>0.5343021412444874</v>
+        <v>2.404359635600194</v>
       </c>
       <c r="M33">
-        <v>0.3362110598216909</v>
+        <v>1.512949769197609</v>
       </c>
       <c r="P33">
-        <v>4.217829942865478</v>
+        <v>18.98023474289466</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2020,43 +2020,43 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.1478691340010702</v>
+        <v>0.6654111030048162</v>
       </c>
       <c r="C34">
-        <v>0.9911059729955856</v>
+        <v>4.459976878480137</v>
       </c>
       <c r="D34">
-        <v>0.0005811199483731523</v>
+        <v>0.002615039767679185</v>
       </c>
       <c r="E34">
-        <v>0.05527485759354208</v>
+        <v>0.2487368591709393</v>
       </c>
       <c r="F34">
-        <v>0.1733151525905765</v>
+        <v>0.779918186657594</v>
       </c>
       <c r="G34">
-        <v>0.2815661973437104</v>
+        <v>1.267047888046696</v>
       </c>
       <c r="H34">
-        <v>0.0797993286390276</v>
+        <v>0.3590969788756241</v>
       </c>
       <c r="I34">
-        <v>0.5914419290297659</v>
+        <v>2.661488680633947</v>
       </c>
       <c r="J34">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K34">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L34">
-        <v>0.4986819984948549</v>
+        <v>2.244068993226848</v>
       </c>
       <c r="M34">
-        <v>0.3137969891669116</v>
+        <v>1.412086451251102</v>
       </c>
       <c r="P34">
-        <v>3.260919823270744</v>
+        <v>14.67413920471835</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2064,43 +2064,43 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.09714272704554613</v>
+        <v>0.4371422717049577</v>
       </c>
       <c r="C35">
-        <v>0.6511077356226603</v>
+        <v>2.929984810301975</v>
       </c>
       <c r="D35">
-        <v>0.0004519821820680073</v>
+        <v>0.002033919819306034</v>
       </c>
       <c r="E35">
-        <v>0.04299155590608828</v>
+        <v>0.1934620015773973</v>
       </c>
       <c r="F35">
-        <v>0.08665757629528824</v>
+        <v>0.389959093328797</v>
       </c>
       <c r="G35">
-        <v>0.1407830986718552</v>
+        <v>0.6335239440233481</v>
       </c>
       <c r="H35">
-        <v>0.05503401975105354</v>
+        <v>0.2476530888797409</v>
       </c>
       <c r="I35">
-        <v>0.4078909855377696</v>
+        <v>1.835509434919963</v>
       </c>
       <c r="J35">
-        <v>0.08859837265516766</v>
+        <v>0.3986926769482546</v>
       </c>
       <c r="K35">
-        <v>0.1173423975612825</v>
+        <v>0.5280407890257716</v>
       </c>
       <c r="L35">
-        <v>0.7480229977422828</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M35">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="P35">
-        <v>2.90671893272143</v>
+        <v>13.08023519724643</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,49 +2108,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.06962448013503311</v>
+        <v>0.3133101606076489</v>
       </c>
       <c r="C36">
-        <v>0.466664247374603</v>
+        <v>2.099989113185714</v>
       </c>
       <c r="D36">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E36">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F36">
-        <v>0.07427792253881849</v>
+        <v>0.3342506514246831</v>
       </c>
       <c r="G36">
-        <v>0.1206712274330187</v>
+        <v>0.5430205234485838</v>
       </c>
       <c r="H36">
-        <v>0.02201360790042141</v>
+        <v>0.09906123555189636</v>
       </c>
       <c r="I36">
-        <v>0.1631563942151078</v>
+        <v>0.7342037739679854</v>
       </c>
       <c r="J36">
-        <v>0.06328455189654834</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K36">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L36">
-        <v>0.3918215702459575</v>
+        <v>1.763197066106808</v>
       </c>
       <c r="M36">
-        <v>0.2465547772025734</v>
+        <v>1.10949649741158</v>
       </c>
       <c r="N36">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O36">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P36">
-        <v>1.740311731511357</v>
+        <v>7.831402791801105</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2158,37 +2158,37 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.04210623322452001</v>
+        <v>0.1894780495103401</v>
       </c>
       <c r="C37">
-        <v>0.2822207591265456</v>
+        <v>1.269993416069455</v>
       </c>
       <c r="D37">
-        <v>0.0001937066494577175</v>
+        <v>0.0008716799225597285</v>
       </c>
       <c r="E37">
-        <v>0.0184249525311807</v>
+        <v>0.08291228639031312</v>
       </c>
       <c r="H37">
-        <v>0.002751700987552676</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I37">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J37">
-        <v>0.06328455189654834</v>
+        <v>0.2847804835344675</v>
       </c>
       <c r="K37">
-        <v>0.08381599825805897</v>
+        <v>0.3771719921612653</v>
       </c>
       <c r="L37">
-        <v>0.42744171299559</v>
+        <v>1.923487708480155</v>
       </c>
       <c r="M37">
-        <v>0.2689688478573526</v>
+        <v>1.210359815358087</v>
       </c>
       <c r="P37">
-        <v>1.209603012803695</v>
+        <v>5.443213557616629</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2196,43 +2196,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.0298390629150142</v>
+        <v>0.1342757831175637</v>
       </c>
       <c r="C38">
-        <v>0.1999989631605441</v>
+        <v>0.8999953342224484</v>
       </c>
       <c r="D38">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E38">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F38">
-        <v>0.03713896126940924</v>
+        <v>0.1671253257123416</v>
       </c>
       <c r="G38">
-        <v>0.06033561371650933</v>
+        <v>0.2715102617242919</v>
       </c>
       <c r="H38">
-        <v>0.002751700987552676</v>
+        <v>0.01238265444398704</v>
       </c>
       <c r="I38">
-        <v>0.02039454927688848</v>
+        <v>0.09177547174599818</v>
       </c>
       <c r="J38">
-        <v>0.0675035220229849</v>
+        <v>0.3037658491034321</v>
       </c>
       <c r="K38">
-        <v>0.08940373147526291</v>
+        <v>0.4023167916386831</v>
       </c>
       <c r="L38">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M38">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P38">
-        <v>0.7767402768030902</v>
+        <v>3.495331245613905</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2240,37 +2240,37 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.02055579889700976</v>
+        <v>0.09250109503654394</v>
       </c>
       <c r="C39">
-        <v>0.1377770635105971</v>
+        <v>0.619996785797687</v>
       </c>
       <c r="D39">
-        <v>0.000129137766305145</v>
+        <v>0.0005811199483731523</v>
       </c>
       <c r="E39">
-        <v>0.0122833016874538</v>
+        <v>0.05527485759354208</v>
       </c>
       <c r="F39">
-        <v>0.06189826878234875</v>
+        <v>0.2785422095205693</v>
       </c>
       <c r="G39">
-        <v>0.1005593561941822</v>
+        <v>0.45251710287382</v>
       </c>
       <c r="J39">
-        <v>0.008437940252873113</v>
+        <v>0.03797073113792901</v>
       </c>
       <c r="K39">
-        <v>0.01117546643440786</v>
+        <v>0.05028959895483539</v>
       </c>
       <c r="L39">
-        <v>0.3562014274963251</v>
+        <v>1.602906423733463</v>
       </c>
       <c r="M39">
-        <v>0.224140706547794</v>
+        <v>1.008633179465073</v>
       </c>
       <c r="P39">
-        <v>0.9331584675692968</v>
+        <v>4.199213104061836</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,43 +2278,43 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.01657725717500787</v>
+        <v>0.07459765728753545</v>
       </c>
       <c r="C40">
-        <v>0.1111105350891912</v>
+        <v>0.4999974079013602</v>
       </c>
       <c r="D40">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E40">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F40">
-        <v>0.01237965375646975</v>
+        <v>0.05570844190411388</v>
       </c>
       <c r="G40">
-        <v>0.02011187123883645</v>
+        <v>0.090503420574764</v>
       </c>
       <c r="H40">
-        <v>0.01375850493776338</v>
+        <v>0.06191327221993522</v>
       </c>
       <c r="I40">
-        <v>0.1019727463844424</v>
+        <v>0.4588773587299909</v>
       </c>
       <c r="J40">
-        <v>0.03797073113792901</v>
+        <v>0.1708682901206806</v>
       </c>
       <c r="K40">
-        <v>0.05028959895483539</v>
+        <v>0.2263031952967592</v>
       </c>
       <c r="L40">
-        <v>0.1781007137481626</v>
+        <v>0.8014532118667315</v>
       </c>
       <c r="M40">
-        <v>0.112070353273897</v>
+        <v>0.5043165897325365</v>
       </c>
       <c r="P40">
-        <v>0.679166844604053</v>
+        <v>3.056250800718238</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2322,43 +2322,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.0437639589420208</v>
+        <v>0.1969378152390935</v>
       </c>
       <c r="C41">
-        <v>0.2933318126354647</v>
+        <v>1.319993156859591</v>
       </c>
       <c r="D41">
-        <v>0.0002582755326102899</v>
+        <v>0.001162239896746305</v>
       </c>
       <c r="E41">
-        <v>0.02456660337490759</v>
+        <v>0.1105497151870842</v>
       </c>
       <c r="F41">
-        <v>0.04951861502587899</v>
+        <v>0.2228337676164555</v>
       </c>
       <c r="G41">
-        <v>0.08044748495534579</v>
+        <v>0.362013682299056</v>
       </c>
       <c r="H41">
-        <v>0.00825510296265803</v>
+        <v>0.03714796333196114</v>
       </c>
       <c r="I41">
-        <v>0.06118364783066543</v>
+        <v>0.2753264152379944</v>
       </c>
       <c r="J41">
-        <v>0.05484661164367522</v>
+        <v>0.2468097523965385</v>
       </c>
       <c r="K41">
-        <v>0.07264053182365111</v>
+        <v>0.3268823932064299</v>
       </c>
       <c r="L41">
-        <v>0.1424805709985299</v>
+        <v>0.6411625694933853</v>
       </c>
       <c r="M41">
-        <v>0.08965628261911757</v>
+        <v>0.4034532717860291</v>
       </c>
       <c r="P41">
-        <v>0.9209494983445254</v>
+        <v>4.144272742550365</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2366,43 +2366,43 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1167038905120555</v>
+        <v>0.5251675073042493</v>
       </c>
       <c r="C42">
-        <v>0.7822181670279061</v>
+        <v>3.519981751625577</v>
       </c>
       <c r="D42">
-        <v>6.456888315257249E-05</v>
+        <v>0.0002905599741865762</v>
       </c>
       <c r="E42">
-        <v>0.006141650843726898</v>
+        <v>0.02763742879677104</v>
       </c>
       <c r="F42">
-        <v>0.2228337676164556</v>
+        <v>1.00275195427405</v>
       </c>
       <c r="G42">
-        <v>0.362013682299056</v>
+        <v>1.629061570345751</v>
       </c>
       <c r="H42">
-        <v>0.03026871086307944</v>
+        <v>0.1362091988838575</v>
       </c>
       <c r="I42">
-        <v>0.2243400420457733</v>
+        <v>1.00953018920598</v>
       </c>
       <c r="J42">
-        <v>0.1771967453103353</v>
+        <v>0.7973853538965091</v>
       </c>
       <c r="K42">
-        <v>0.2346847951225651</v>
+        <v>1.056081578051543</v>
       </c>
       <c r="L42">
-        <v>0.5343021412444874</v>
+        <v>2.404359635600194</v>
       </c>
       <c r="M42">
-        <v>0.3362110598216909</v>
+        <v>1.512949769197609</v>
       </c>
       <c r="P42">
-        <v>3.026979221590284</v>
+        <v>13.62140649715628</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.1916330929430909</v>
+        <v>0.8623489182439098</v>
       </c>
       <c r="C43">
-        <v>1.284437785631051</v>
+        <v>5.779970035339729</v>
       </c>
       <c r="D43">
-        <v>0.0003874132989154349</v>
+        <v>0.001743359845119457</v>
       </c>
       <c r="E43">
-        <v>0.0368499050623614</v>
+        <v>0.1658245727806262</v>
       </c>
       <c r="F43">
-        <v>0.2599727288858649</v>
+        <v>1.169877279986391</v>
       </c>
       <c r="G43">
-        <v>0.4223492960155653</v>
+        <v>1.900571832070044</v>
       </c>
       <c r="H43">
-        <v>0.1045646375270017</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I43">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J43">
-        <v>0.3670504009999803</v>
+        <v>1.651726804499912</v>
       </c>
       <c r="K43">
-        <v>0.4861327898967421</v>
+        <v>2.187597554535339</v>
       </c>
       <c r="L43">
-        <v>0.9973639969897098</v>
+        <v>4.488137986453697</v>
       </c>
       <c r="M43">
-        <v>0.6275939783338232</v>
+        <v>2.824172902502204</v>
       </c>
       <c r="P43">
-        <v>5.553328898105867</v>
+        <v>24.98998004147641</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.2725301079571296</v>
+        <v>1.226385485807083</v>
       </c>
       <c r="C44">
-        <v>1.826657196866303</v>
+        <v>8.219957385898368</v>
       </c>
       <c r="D44">
-        <v>0.0006456888315257247</v>
+        <v>0.002905599741865762</v>
       </c>
       <c r="E44">
-        <v>0.06141650843726898</v>
+        <v>0.2763742879677104</v>
       </c>
       <c r="F44">
-        <v>0.2104541138599857</v>
+        <v>0.9470435123699354</v>
       </c>
       <c r="G44">
-        <v>0.3419018110602197</v>
+        <v>1.538558149770988</v>
       </c>
       <c r="H44">
-        <v>0.1045646375270017</v>
+        <v>0.4705408688715076</v>
       </c>
       <c r="I44">
-        <v>0.7749928725217621</v>
+        <v>3.48746792634793</v>
       </c>
       <c r="J44">
-        <v>0.1940726258160816</v>
+        <v>0.8733268161723671</v>
       </c>
       <c r="K44">
-        <v>0.2570357279913809</v>
+        <v>1.156660775961214</v>
       </c>
       <c r="L44">
-        <v>0.7480229977422828</v>
+        <v>3.366103489840271</v>
       </c>
       <c r="M44">
-        <v>0.4706954837503672</v>
+        <v>2.118129676876653</v>
       </c>
       <c r="N44">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O44">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P44">
-        <v>5.290193923168705</v>
+        <v>23.80587265425917</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.2612575730781243</v>
+        <v>1.175659078851558</v>
       </c>
       <c r="C45">
-        <v>1.751102033005654</v>
+        <v>7.879959148525439</v>
       </c>
       <c r="D45">
-        <v>0.00206620426088232</v>
+        <v>0.009297919173970437</v>
       </c>
       <c r="E45">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="F45">
-        <v>0.3094913439117437</v>
+        <v>1.392711047602846</v>
       </c>
       <c r="G45">
-        <v>0.5027967809709112</v>
+        <v>2.2625855143691</v>
       </c>
       <c r="H45">
-        <v>0.06053742172615888</v>
+        <v>0.2724183977677149</v>
       </c>
       <c r="I45">
-        <v>0.4486800840915466</v>
+        <v>2.019060378411959</v>
       </c>
       <c r="J45">
-        <v>0.3248606997356149</v>
+        <v>1.461873148810267</v>
       </c>
       <c r="K45">
-        <v>0.4302554577247026</v>
+        <v>1.936149559761162</v>
       </c>
       <c r="L45">
-        <v>1.353565424486035</v>
+        <v>6.091044410187155</v>
       </c>
       <c r="M45">
-        <v>0.851734684881617</v>
+        <v>3.832806081967276</v>
       </c>
       <c r="N45">
-        <v>0.01319037998654261</v>
+        <v>0.05935670993944172</v>
       </c>
       <c r="O45">
-        <v>0.05481999703194682</v>
+        <v>0.2466899866437607</v>
       </c>
       <c r="P45">
-        <v>6.56089091189074</v>
+        <v>29.52400910350832</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.2466695867641171</v>
+        <v>1.110013140438527</v>
       </c>
       <c r="C46">
-        <v>1.653324762127165</v>
+        <v>7.439961429572238</v>
       </c>
       <c r="D46">
-        <v>0.001291377663051449</v>
+        <v>0.005811199483731523</v>
       </c>
       <c r="E46">
-        <v>0.122833016874538</v>
+        <v>0.5527485759354208</v>
       </c>
       <c r="F46">
-        <v>0.3342506514246831</v>
+        <v>1.504127931411075</v>
       </c>
       <c r="G46">
-        <v>0.5430205234485838</v>
+        <v>2.443592355518628</v>
       </c>
       <c r="H46">
-        <v>0.08805443160168563</v>
+        <v>0.3962449422075854</v>
       </c>
       <c r="I46">
-        <v>0.6526255768604313</v>
+        <v>2.936815095871942</v>
       </c>
       <c r="J46">
-        <v>0.4303349528965287</v>
+        <v>1.936507288034379</v>
       </c>
       <c r="K46">
-        <v>0.5699487881548011</v>
+        <v>2.564769546696605</v>
       </c>
       <c r="L46">
-        <v>1.816627280231258</v>
+        <v>8.174822761040659</v>
       </c>
       <c r="M46">
-        <v>1.143117603393749</v>
+        <v>5.144029215271871</v>
       </c>
       <c r="N46">
-        <v>0.01055230398923408</v>
+        <v>0.04748536795155339</v>
       </c>
       <c r="O46">
-        <v>0.04385599762555745</v>
+        <v>0.1973519893150085</v>
       </c>
       <c r="P46">
-        <v>7.656506853055382</v>
+        <v>34.45428083874923</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.1909700026560907</v>
+        <v>0.8593650119524079</v>
       </c>
       <c r="C47">
-        <v>1.279993364227483</v>
+        <v>5.759970139023673</v>
       </c>
       <c r="D47">
-        <v>0.00206620426088232</v>
+        <v>0.009297919173970437</v>
       </c>
       <c r="E47">
-        <v>0.1965328269992607</v>
+        <v>0.8843977214966733</v>
       </c>
       <c r="F47">
-        <v>0.247593075129395</v>
+        <v>1.114168838082277</v>
       </c>
       <c r="G47">
-        <v>0.4022374247767288</v>
+        <v>1.81006841149528</v>
       </c>
       <c r="H47">
-        <v>0.07429592666392228</v>
+        <v>0.3343316699876502</v>
       </c>
       <c r="I47">
-        <v>0.5506528304759889</v>
+        <v>2.47793773714195</v>
       </c>
       <c r="J47">
-        <v>0.5315902359310061</v>
+        <v>2.392156061689527</v>
       </c>
       <c r="K47">
-        <v>0.7040543853676954</v>
+        <v>3.168244734154629</v>
       </c>
       <c r="L47">
-        <v>1.959107851229787</v>
+        <v>8.815985330534044</v>
       </c>
       <c r="M47">
-        <v>1.232773886012867</v>
+        <v>5.547482487057899</v>
       </c>
       <c r="N47">
-        <v>0.03957113995962781</v>
+        <v>0.1780701298183251</v>
       </c>
       <c r="O47">
-        <v>0.1644599910958404</v>
+        <v>0.7400699599312821</v>
       </c>
       <c r="P47">
-        <v>7.575899144786574</v>
+        <v>34.09154615153959</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.2108627112661002</v>
+        <v>0.9488822006974509</v>
       </c>
       <c r="C48">
-        <v>1.413326006334513</v>
+        <v>6.359967028505302</v>
       </c>
       <c r="D48">
-        <v>0.002453617559797755</v>
+        <v>0.01104127901908989</v>
       </c>
       <c r="E48">
-        <v>0.2333827320616221</v>
+        <v>1.0502222942773</v>
       </c>
       <c r="F48">
-        <v>0.4209082277199715</v>
+        <v>1.894087024739871</v>
       </c>
       <c r="G48">
-        <v>0.6838036221204393</v>
+        <v>3.077116299541976</v>
       </c>
       <c r="H48">
-        <v>0.06604082370126424</v>
+        <v>0.2971837066556891</v>
       </c>
       <c r="I48">
-        <v>0.4894691826453235</v>
+        <v>2.202611321903956</v>
       </c>
       <c r="J48">
-        <v>0.447210833402275</v>
+        <v>2.012448750310237</v>
       </c>
       <c r="K48">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="L48">
-        <v>1.496045995484566</v>
+        <v>6.732206979680543</v>
       </c>
       <c r="M48">
-        <v>0.9413909675007345</v>
+        <v>4.236259353753305</v>
       </c>
       <c r="N48">
-        <v>0.005276151994617041</v>
+        <v>0.02374268397577669</v>
       </c>
       <c r="O48">
-        <v>0.02192799881277873</v>
+        <v>0.09867599465750425</v>
       </c>
       <c r="P48">
-        <v>7.024398591627619</v>
+        <v>31.60979366232428</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.2224667912886057</v>
+        <v>1.001100560798726</v>
       </c>
       <c r="C49">
-        <v>1.491103380896946</v>
+        <v>6.709965214036255</v>
       </c>
       <c r="D49">
-        <v>0.002518186442950327</v>
+        <v>0.01133183899327647</v>
       </c>
       <c r="E49">
-        <v>0.239524382905349</v>
+        <v>1.077859723074071</v>
       </c>
       <c r="F49">
-        <v>0.3590099589376228</v>
+        <v>1.615544815219302</v>
       </c>
       <c r="G49">
-        <v>0.5832442659262569</v>
+        <v>2.624599196668157</v>
       </c>
       <c r="H49">
-        <v>0.06328912271371155</v>
+        <v>0.2848010522117021</v>
       </c>
       <c r="I49">
-        <v>0.469074633368435</v>
+        <v>2.110835850157958</v>
       </c>
       <c r="J49">
-        <v>0.447210833402275</v>
+        <v>2.012448750310237</v>
       </c>
       <c r="K49">
-        <v>0.5922997210236167</v>
+        <v>2.665348744606275</v>
       </c>
       <c r="L49">
-        <v>3.41953370396472</v>
+        <v>15.38790166784124</v>
       </c>
       <c r="M49">
-        <v>2.151750782858821</v>
+        <v>9.6828785228647</v>
       </c>
       <c r="N49">
-        <v>0.002638075997308521</v>
+        <v>0.01187134198788835</v>
       </c>
       <c r="O49">
-        <v>0.01096399940638936</v>
+        <v>0.04933799732875212</v>
       </c>
       <c r="P49">
-        <v>10.05462783913301</v>
+        <v>45.24582527609854</v>
       </c>
     </row>
   </sheetData>
